--- a/11.airsoftnut/extracted_data/11.Data.xlsx
+++ b/11.airsoftnut/extracted_data/11.Data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="840">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="974">
   <si>
     <t>name</t>
   </si>
@@ -32,6 +32,9 @@
     <t>facebook</t>
   </si>
   <si>
+    <t>hours</t>
+  </si>
+  <si>
     <t>Mt. Doom Paintball and Airsoft</t>
   </si>
   <si>
@@ -47,6 +50,9 @@
     <t>https://www.facebook.com/MtDoomPaintballField</t>
   </si>
   <si>
+    <t>Hours:, Sa-Su: 10am-6pm</t>
+  </si>
+  <si>
     <t>Ridgeline Airsoft</t>
   </si>
   <si>
@@ -62,6 +68,9 @@
     <t>https://www.facebook.com/RidgelineAL/?ref=br_tf</t>
   </si>
   <si>
+    <t>Hours:, Sat: 9am-5pm</t>
+  </si>
+  <si>
     <t>Interior Alaska Airsoft LLC</t>
   </si>
   <si>
@@ -74,6 +83,9 @@
     <t>https://www.facebook.com/pages/Repp-Rd-Paintball-Field/162924310434771</t>
   </si>
   <si>
+    <t>Hours:, Sat-Sun: 12pm-8pm</t>
+  </si>
+  <si>
     <t>Fightertown Paintball and Airsoft</t>
   </si>
   <si>
@@ -89,6 +101,9 @@
     <t>https://www.facebook.com/FightertownPaintball/</t>
   </si>
   <si>
+    <t>Hours:, Sat: 6am–12pm and 6pm–12am Sunday 6am–12pm</t>
+  </si>
+  <si>
     <t>Freedom Airsoft</t>
   </si>
   <si>
@@ -104,6 +119,9 @@
     <t>https://www.facebook.com/FreedomAirsoft/</t>
   </si>
   <si>
+    <t>Hours:, Friday: 6–10PM, Saturday 8AM–1PM and 4–10:30PM, Sunday 2–6PM</t>
+  </si>
+  <si>
     <t>VIP Airsoft</t>
   </si>
   <si>
@@ -119,6 +137,9 @@
     <t>https://www.facebook.com/VIPAirsoft/</t>
   </si>
   <si>
+    <t>Hours:, Fri: 12PM – 8:30PM</t>
+  </si>
+  <si>
     <t>Wild West Paintball and Airsoft Park</t>
   </si>
   <si>
@@ -134,6 +155,9 @@
     <t>https://www.facebook.com/AZWildWest/</t>
   </si>
   <si>
+    <t>Hours:, Sat: 7AM–3PM, Sun: 7–11AM</t>
+  </si>
+  <si>
     <t>Airsoft Extreme Arena</t>
   </si>
   <si>
@@ -149,6 +173,9 @@
     <t>https://www.facebook.com/AEXSuperstores/</t>
   </si>
   <si>
+    <t>Hours:, Tue-Sat 11AM–6PM</t>
+  </si>
+  <si>
     <t>Ambush Airsoft Park</t>
   </si>
   <si>
@@ -164,6 +191,9 @@
     <t>https://www.facebook.com/Ambushpaintballpark</t>
   </si>
   <si>
+    <t>Hours:, Sat-Sun: 9AM-4PM</t>
+  </si>
+  <si>
     <t>Camp Pendeton Airsoft Park</t>
   </si>
   <si>
@@ -179,6 +209,9 @@
     <t>https://www.facebook.com/ThePaintballParkMiramar/</t>
   </si>
   <si>
+    <t>Hours:, Fri-Sun: 8:30AM-5PM</t>
+  </si>
+  <si>
     <t>Code Red Airsoft Park</t>
   </si>
   <si>
@@ -194,6 +227,9 @@
     <t>https://www.facebook.com/coderedairsoft</t>
   </si>
   <si>
+    <t>Hours:, Sat-Sun: 8:30AM-4PM</t>
+  </si>
+  <si>
     <t>Combat Paintball Park</t>
   </si>
   <si>
@@ -224,6 +260,9 @@
     <t>https://www.facebook.com/pg/CQB-City-274299872583009/about/?ref=page_internal</t>
   </si>
   <si>
+    <t>Hours:, Fri: 6–11:30PM, Sat: 1–7PM, Sun: 12:30–7PM</t>
+  </si>
+  <si>
     <t>DSOC Killhouse</t>
   </si>
   <si>
@@ -239,6 +278,9 @@
     <t>https://www.facebook.com/DSOC-Killhouse-141737456472746/</t>
   </si>
   <si>
+    <t>Hours:, Sun: 9AM-5PM</t>
+  </si>
+  <si>
     <t>Fresno Airsoft Arena</t>
   </si>
   <si>
@@ -254,6 +296,9 @@
     <t>https://www.facebook.com/FresnoAirsoft/</t>
   </si>
   <si>
+    <t>Hours:, Sat-Sun: 9AM-3PM</t>
+  </si>
+  <si>
     <t>Gamepod Combat Zone</t>
   </si>
   <si>
@@ -269,6 +314,9 @@
     <t>https://www.facebook.com/GPCombatZone</t>
   </si>
   <si>
+    <t>Hours:, Wed-Thur: 7–11PM, Fri: 6:30–11PM, Sat: 8:30AM–9PM, Sun: 8:30AM–4PM</t>
+  </si>
+  <si>
     <t>Gorilla Airsoft</t>
   </si>
   <si>
@@ -284,6 +332,9 @@
     <t>https://www.facebook.com/GorillaAirsoft?ref=hl</t>
   </si>
   <si>
+    <t>Hours:, Mon-Fri:11AM–7PM, Sat: 10AM–5PM</t>
+  </si>
+  <si>
     <t>Hill 559</t>
   </si>
   <si>
@@ -293,6 +344,9 @@
     <t>https://www.facebook.com/Hill559</t>
   </si>
   <si>
+    <t>Hours:, Check website for hours</t>
+  </si>
+  <si>
     <t>Jungle Island Airsoft Park</t>
   </si>
   <si>
@@ -320,6 +374,9 @@
     <t>https://www.facebook.com/Mr.Paintball?fref=ts</t>
   </si>
   <si>
+    <t>Hours:, Mon-Tues: Closed Wed-Sun: 9AM-3PM</t>
+  </si>
+  <si>
     <t>Playland 707</t>
   </si>
   <si>
@@ -335,6 +392,9 @@
     <t>https://www.facebook.com/pages/category/Paintball-Center/PLAYLAND-213791815300527/</t>
   </si>
   <si>
+    <t>Hours:, Saturday-Sunday: 10AM–5PM</t>
+  </si>
+  <si>
     <t>Sierra AO</t>
   </si>
   <si>
@@ -356,6 +416,9 @@
     <t>http://www.strykerpa.com/</t>
   </si>
   <si>
+    <t>Hours:, Fri: 3–7PM, Sat: 9AM–4PM, Sun: 9AM–4PM</t>
+  </si>
+  <si>
     <t>Tac City Airsoft</t>
   </si>
   <si>
@@ -371,6 +434,9 @@
     <t>https://www.facebook.com/TacCity/</t>
   </si>
   <si>
+    <t>Hours:, Mon-Fri: 5PM-10PM Sat-Sun: 1PM-10PM</t>
+  </si>
+  <si>
     <t>U.S. Airsoft World</t>
   </si>
   <si>
@@ -386,6 +452,9 @@
     <t>https://www.facebook.com/USAirsoftworld/</t>
   </si>
   <si>
+    <t>Hours:, Wednesday-Friday: 10AM–5PM, Saturday-Sunday: 9AM–4PM</t>
+  </si>
+  <si>
     <t>All Patriot Airsoft</t>
   </si>
   <si>
@@ -401,6 +470,9 @@
     <t>https://www.facebook.com/ukausairsoftfield/</t>
   </si>
   <si>
+    <t>Hours:, Sat-Sun: 9AM-5PM</t>
+  </si>
+  <si>
     <t>Warped Ops</t>
   </si>
   <si>
@@ -446,6 +518,9 @@
     <t>https://www.facebook.com/APCpaintball/</t>
   </si>
   <si>
+    <t>Hours:, Mon-Fri: 11AM–8PM, Sat: 9AM–8PM, Sun: 11AM–6PM</t>
+  </si>
+  <si>
     <t>F.A.F. Flat Acres Farm Airsoft Field</t>
   </si>
   <si>
@@ -458,6 +533,9 @@
     <t>https://www.facebook.com/FoxAirsoft</t>
   </si>
   <si>
+    <t>Hours:, Saturdays &amp; Sundays 9:00am – 1:00pm, 2:00pm – 6:00pm</t>
+  </si>
+  <si>
     <t>Go Airheads</t>
   </si>
   <si>
@@ -473,6 +551,9 @@
     <t>https://www.facebook.com/GoAirheads</t>
   </si>
   <si>
+    <t>Hours:, Tue-Thur: 10AM–5PM, Fri: 10AM–11PM, Sat: 10AM–11PM, Sun: 10AM–5PM</t>
+  </si>
+  <si>
     <t>Ground Zero Airsoft Field</t>
   </si>
   <si>
@@ -488,6 +569,9 @@
     <t>https://www.facebook.com/Groundzeroairsoftusa</t>
   </si>
   <si>
+    <t>Hours:, Wed-Fri: 12–6PM, Sat: 10AM–5PM, Sun: 9AM–5PM</t>
+  </si>
+  <si>
     <t>Tactical Airsoft</t>
   </si>
   <si>
@@ -503,6 +587,9 @@
     <t>https://www.facebook.com/tactairsoftct/</t>
   </si>
   <si>
+    <t>Hours:, Wed-Thurs: 11PM-7PM Fri-Sat: 11AM-10PM Sun: 11AM-8PM</t>
+  </si>
+  <si>
     <t>911 Airsoft</t>
   </si>
   <si>
@@ -518,6 +605,9 @@
     <t>https://www.facebook.com/911airsoft/?fref=ts</t>
   </si>
   <si>
+    <t>Hours:, Saturday: 9AM-5PM</t>
+  </si>
+  <si>
     <t>Battalion Airsoft Arena</t>
   </si>
   <si>
@@ -533,6 +623,9 @@
     <t>https://www.facebook.com/BattalionAirsoftArena?ref=ts&amp;fref=ts</t>
   </si>
   <si>
+    <t>Hours:, Mon-Thurs: 10AM-6PM Fri-Sat: 10AM-8PM Sun: 10AM-6PM</t>
+  </si>
+  <si>
     <t>Black Tiger Airsoft</t>
   </si>
   <si>
@@ -548,6 +641,9 @@
     <t>https://www.facebook.com/BlackTigerAirsoft/</t>
   </si>
   <si>
+    <t>Hours:, Saturday: 9:30AM-6PM</t>
+  </si>
+  <si>
     <t>Combat Zone Sports</t>
   </si>
   <si>
@@ -563,6 +659,9 @@
     <t>https://www.facebook.com/americanpride2020/</t>
   </si>
   <si>
+    <t>Hours:, Sat-Sun: 10AM-5PM</t>
+  </si>
+  <si>
     <t>Doomsday Airsoft / Route 7</t>
   </si>
   <si>
@@ -587,6 +686,9 @@
     <t>https://www.facebook.com/InVinciblesPaintballPark/</t>
   </si>
   <si>
+    <t>Hours:, Sat-Mon: 10AM–10PM, Tue: 10AM–8:15PM, Fri: 5–10PM</t>
+  </si>
+  <si>
     <t>Miami Airsoft</t>
   </si>
   <si>
@@ -602,6 +704,9 @@
     <t>https://www.facebook.com/MiamiAirSoft/</t>
   </si>
   <si>
+    <t>Hours:, Mon-Fri: 10AM-10PM Sat: 10AM-9PM Sun: 10AM-6PM</t>
+  </si>
+  <si>
     <t>Tactical Airsoft Compound (T.A.C.)</t>
   </si>
   <si>
@@ -617,6 +722,9 @@
     <t>https://www.facebook.com/tacairsoftcompound/</t>
   </si>
   <si>
+    <t>Hours:, Mon-Thurs: 9AM-5PM Fri-Sun: 9AM-11PM</t>
+  </si>
+  <si>
     <t>Airsoft Depot</t>
   </si>
   <si>
@@ -629,6 +737,9 @@
     <t>https://www.facebook.com/AIRSOFTDEPOT</t>
   </si>
   <si>
+    <t>Hours:, Wed-Fri: 12–5PM, Sat: 11AM–6PM, Sun: 1–6PM</t>
+  </si>
+  <si>
     <t>Arkenstone 1 Paintball and Airsoft</t>
   </si>
   <si>
@@ -641,6 +752,9 @@
     <t>http://www.apbfields.com/</t>
   </si>
   <si>
+    <t>Hours:, Saturday: 10am-5pm, Sunday: 12pm-5pm</t>
+  </si>
+  <si>
     <t>Elite Ops Airsoft</t>
   </si>
   <si>
@@ -656,6 +770,9 @@
     <t>https://www.facebook.com/EliteOpsAirsoftGA/</t>
   </si>
   <si>
+    <t>Hours:, Friday: 5–10PM, Saturday: 12–8PM, Sunday: 1–7PM</t>
+  </si>
+  <si>
     <t>Georgia Airsoft</t>
   </si>
   <si>
@@ -668,6 +785,9 @@
     <t>https://www.facebook.com/GeorgiaAirsoft/</t>
   </si>
   <si>
+    <t>Hours:, Tues-Sat: 10AM-6PM</t>
+  </si>
+  <si>
     <t>Hoppers Paintball and Airsoft</t>
   </si>
   <si>
@@ -683,6 +803,9 @@
     <t>https://www.facebook.com/hopperpb/</t>
   </si>
   <si>
+    <t>Hours:, Tue-Wed: 9AM–5PM, Sat-Sun: 9AM–5PM</t>
+  </si>
+  <si>
     <t>Power Ops</t>
   </si>
   <si>
@@ -695,6 +818,9 @@
     <t>https://www.facebook.com/airsoftatlanta/app/212104595551052/</t>
   </si>
   <si>
+    <t>Hours:, Sat-Sun: 11AM-6PM</t>
+  </si>
+  <si>
     <t>Shanes Hot Shots</t>
   </si>
   <si>
@@ -707,6 +833,9 @@
     <t>http://www.shaneshotshots.com/</t>
   </si>
   <si>
+    <t>Hours:, Sat-Sun: 11AM-5PM</t>
+  </si>
+  <si>
     <t>SS Airsoft</t>
   </si>
   <si>
@@ -722,6 +851,9 @@
     <t>https://www.facebook.com/SSAIRSOFT/</t>
   </si>
   <si>
+    <t>Hours:, Wed &amp; Thu:12–6PM, Fri: 12–9PM, Sat 12–7PM, Sun: 12–6PM</t>
+  </si>
+  <si>
     <t>Team Airsoft</t>
   </si>
   <si>
@@ -752,6 +884,9 @@
     <t>https://www.facebook.com/BadlandzPaintballField/</t>
   </si>
   <si>
+    <t>Hours:, Friday: 9AM–4PM, Sat &amp; Sun: 8AM–5PM</t>
+  </si>
+  <si>
     <t>Bing Field Paintball and Airsoft</t>
   </si>
   <si>
@@ -767,6 +902,9 @@
     <t>https://www.facebook.com/bingfield/</t>
   </si>
   <si>
+    <t>Hours:, Sunday: 10AM-4PM Monday-Saturday: 10AM-5PM</t>
+  </si>
+  <si>
     <t>CPX Sports</t>
   </si>
   <si>
@@ -797,6 +935,9 @@
     <t>https://www.facebook.com/legacyadventurepark/</t>
   </si>
   <si>
+    <t>Hours:, Sunday: 10AM-5PM</t>
+  </si>
+  <si>
     <t>Saltfork Paintball</t>
   </si>
   <si>
@@ -812,6 +953,9 @@
     <t>https://www.facebook.com/saltforkpaintball/</t>
   </si>
   <si>
+    <t>Hours:, Sat: 11AM-5PM</t>
+  </si>
+  <si>
     <t>Urban Warfare Paintball</t>
   </si>
   <si>
@@ -827,6 +971,9 @@
     <t>https://www.facebook.com/UrbanWarfareBloomington/</t>
   </si>
   <si>
+    <t>Hours:, Every Day: 9am – 11:00pm</t>
+  </si>
+  <si>
     <t>Blast Camp</t>
   </si>
   <si>
@@ -842,6 +989,9 @@
     <t>https://www.facebook.com/blastcamppaintballandairsoft/</t>
   </si>
   <si>
+    <t>Hours:, Wed-Fri: 9AM–4PM, Sat: 9AM–5PM, Sun: 9AM–4PM</t>
+  </si>
+  <si>
     <t>Butler Indiana Airsoft</t>
   </si>
   <si>
@@ -854,6 +1004,9 @@
     <t>https://www.facebook.com/groups/131540327010648/about/</t>
   </si>
   <si>
+    <t>Hours:, Fri-Sun: 9AM-5PM</t>
+  </si>
+  <si>
     <t>Paintball Plex</t>
   </si>
   <si>
@@ -869,6 +1022,9 @@
     <t>https://www.facebook.com/paintballplex</t>
   </si>
   <si>
+    <t>Hours:, Sat-Sun 10AM-6PM</t>
+  </si>
+  <si>
     <t>Drop Zone Paintball Park</t>
   </si>
   <si>
@@ -884,6 +1040,9 @@
     <t>https://www.facebook.com/DropZonePaintball/</t>
   </si>
   <si>
+    <t>Hours:, Saturday &amp; Sunday: 10AM–4PM</t>
+  </si>
+  <si>
     <t>ACS Airsoft</t>
   </si>
   <si>
@@ -896,6 +1055,9 @@
     <t>https://www.facebook.com/UnrealAirsoft</t>
   </si>
   <si>
+    <t>Hours:, Wed-Fri: 12PM-5PM Sat: 10AM-5PM</t>
+  </si>
+  <si>
     <t>IronSight Airsoft</t>
   </si>
   <si>
@@ -911,6 +1073,9 @@
     <t>https://www.facebook.com/IronsightAirsoft/</t>
   </si>
   <si>
+    <t>Hours:, Sat-Sun: 9:30AM-3:30PM</t>
+  </si>
+  <si>
     <t>Harris Farm Airsoft Field</t>
   </si>
   <si>
@@ -920,6 +1085,9 @@
     <t>https://www.facebook.com/HarrisAirsoft</t>
   </si>
   <si>
+    <t>Hours:, Sat: 9AM-3PM</t>
+  </si>
+  <si>
     <t>Warrior Village</t>
   </si>
   <si>
@@ -932,6 +1100,9 @@
     <t>https://www.facebook.com/pages/Warrior-Village-Airsoft/210376152330669</t>
   </si>
   <si>
+    <t>Hours:, Sun: 10AM-1PM</t>
+  </si>
+  <si>
     <t>North East Adventure Paintball and Airsoft Field</t>
   </si>
   <si>
@@ -977,6 +1148,9 @@
     <t>https://www.facebook.com/PBSLINC/</t>
   </si>
   <si>
+    <t>Hours:, Sat-Sun: 10AM-4PM</t>
+  </si>
+  <si>
     <t>Pasadena Paintball Park (P3) Airsoft</t>
   </si>
   <si>
@@ -989,6 +1163,9 @@
     <t>https://www.facebook.com/p3paint3all/</t>
   </si>
   <si>
+    <t>Hours:, Saturday: 10am-4pm</t>
+  </si>
+  <si>
     <t>Replay Airsoft Arena</t>
   </si>
   <si>
@@ -1004,6 +1181,9 @@
     <t>https://www.facebook.com/ReplayAirsoft/</t>
   </si>
   <si>
+    <t>Hours:, Wed-Fri: 6–10PM, Sat: 3–10PM, Sun: 3–7PM</t>
+  </si>
+  <si>
     <t>Tactical Airsoft Arena</t>
   </si>
   <si>
@@ -1019,6 +1199,9 @@
     <t>https://www.facebook.com/tacticalairsoftarena/</t>
   </si>
   <si>
+    <t>Hours:, Fri: 6PM-11PM Sat-Sun:11AM-7PM</t>
+  </si>
+  <si>
     <t>AllStarr Paintball and Airsoft</t>
   </si>
   <si>
@@ -1034,6 +1217,9 @@
     <t>https://www.facebook.com/Allstarr-Paintball-109531145736886/</t>
   </si>
   <si>
+    <t>Hours:, Saturday: 11AM – 7PM</t>
+  </si>
+  <si>
     <t>PnL Paintball</t>
   </si>
   <si>
@@ -1049,6 +1235,9 @@
     <t>https://www.facebook.com/PNL-Paintball-272656269446253/</t>
   </si>
   <si>
+    <t>Hours:, Sun-Sat: 9AM-4PM</t>
+  </si>
+  <si>
     <t>Stronghold OPS Airsoft</t>
   </si>
   <si>
@@ -1064,6 +1253,9 @@
     <t>https://www.facebook.com/StrongholdOpsAndLaserCombat/</t>
   </si>
   <si>
+    <t>Hours:, Friday: 5pm-10pm Saturday: 12pm-10pm Sunday: 12pm-8pm</t>
+  </si>
+  <si>
     <t>Ultimate Battleground</t>
   </si>
   <si>
@@ -1076,6 +1268,9 @@
     <t>https://www.facebook.com/pages/Ultimate-Battlegrounds-LLC/323717154826592</t>
   </si>
   <si>
+    <t>Hours:, Sat-Sun: 10AM-8PM</t>
+  </si>
+  <si>
     <t>DarkFire Airsoft</t>
   </si>
   <si>
@@ -1130,6 +1325,9 @@
     <t>https://www.facebook.com/pages/Big-Lake-Tactical-Wargames/202023979836313</t>
   </si>
   <si>
+    <t>Hours:, Sat-Sun: 9AM-9PM</t>
+  </si>
+  <si>
     <t>Crossfire Airsoft MN</t>
   </si>
   <si>
@@ -1145,6 +1343,9 @@
     <t>https://www.facebook.com/CrossfireAirsoftMN</t>
   </si>
   <si>
+    <t>Hours:, Sat-Sun: 9AM-4:30PM</t>
+  </si>
+  <si>
     <t>Champion Valley</t>
   </si>
   <si>
@@ -1160,6 +1361,9 @@
     <t>https://www.facebook.com/championvalley/</t>
   </si>
   <si>
+    <t>Hours:, Tues-Sun: 11AM-6PM</t>
+  </si>
+  <si>
     <t>Bailey’s Battlefield</t>
   </si>
   <si>
@@ -1190,6 +1394,9 @@
     <t>https://www.facebook.com/So-Go-Airsoft-291342706293/</t>
   </si>
   <si>
+    <t>Hours:, Mon: 2-7 PM, Wed: 2-7 PM, Thur: 2-9 PM, Fri: 12-7 PM, Sat 11 AM-9 PM, Sun: 1-6PM</t>
+  </si>
+  <si>
     <t>The Rock Airsoft</t>
   </si>
   <si>
@@ -1274,6 +1481,9 @@
     <t>https://www.facebook.com/quickshot.paintballfield/</t>
   </si>
   <si>
+    <t>Hours:, Monday-Friday: 9AM-5PM Saturday: appointment only</t>
+  </si>
+  <si>
     <t>Softair NJ</t>
   </si>
   <si>
@@ -1289,6 +1499,9 @@
     <t>https://www.facebook.com/pages/category/Sports---Recreation-Venue/Soft-Air-NJ-145811835485906/</t>
   </si>
   <si>
+    <t>Hours:, Sat: 9:30AM-3:30PM</t>
+  </si>
+  <si>
     <t>Stryker Airsoft</t>
   </si>
   <si>
@@ -1304,6 +1517,9 @@
     <t>https://www.facebook.com/StrykerAirsoft?ref=aymt_homepage_panel</t>
   </si>
   <si>
+    <t>Hours:, Thurs-Fri: 5PM-10PM Sat: 12PM-10PM Sun: 12PM-8PM</t>
+  </si>
+  <si>
     <t>The Airsoft Factory</t>
   </si>
   <si>
@@ -1319,6 +1535,9 @@
     <t>https://www.facebook.com/theairsoftfactory/</t>
   </si>
   <si>
+    <t>Hours:, Schedule varies each week, check website</t>
+  </si>
+  <si>
     <t>Ruckus paintball and airsoft</t>
   </si>
   <si>
@@ -1334,6 +1553,9 @@
     <t>https://www.facebook.com/ABQRuckus/</t>
   </si>
   <si>
+    <t>Hours:, Sat: 9AM-4PM</t>
+  </si>
+  <si>
     <t>Buffalo Battleground</t>
   </si>
   <si>
@@ -1349,6 +1571,9 @@
     <t>https://www.facebook.com/buffalobattleground/</t>
   </si>
   <si>
+    <t>Hours:, Wed-Fri: 11AM-8PM Sat: 4PM-8PM</t>
+  </si>
+  <si>
     <t>Capital Combat Zone</t>
   </si>
   <si>
@@ -1376,6 +1601,9 @@
     <t>https://www.facebook.com/cooperscavefield/</t>
   </si>
   <si>
+    <t>Hours:, Sun: 10AM-4PM</t>
+  </si>
+  <si>
     <t>Cousins Paintball Riverhead</t>
   </si>
   <si>
@@ -1403,6 +1631,9 @@
     <t>https://www.facebook.com/hvpaintball</t>
   </si>
   <si>
+    <t>Hours:, Sat-Sun: 8AM-8PM</t>
+  </si>
+  <si>
     <t>Hudson Valley Airsoft</t>
   </si>
   <si>
@@ -1418,6 +1649,9 @@
     <t>https://www.facebook.com/hvairsoft/</t>
   </si>
   <si>
+    <t>Hours:, Sat: 11AM-6PM Sun: 12PM-6PM</t>
+  </si>
+  <si>
     <t>Hunters Creek Airsoft</t>
   </si>
   <si>
@@ -1445,6 +1679,9 @@
     <t>https://www.facebook.com/RM-Paintball-Airsoft-134137306651828/</t>
   </si>
   <si>
+    <t>Hours:, Select Sundays: 10AM-4PM</t>
+  </si>
+  <si>
     <t>River City Airsoft</t>
   </si>
   <si>
@@ -1460,6 +1697,9 @@
     <t>https://www.facebook.com/River-City-Airsoft-157430624344125/</t>
   </si>
   <si>
+    <t>Hours:, Fri-Sat: 12PM-5PM Sun: 12PM-3PM</t>
+  </si>
+  <si>
     <t>Strike Force Sports Airsoft</t>
   </si>
   <si>
@@ -1472,6 +1712,9 @@
     <t>http://www.strikeforcesports.net/</t>
   </si>
   <si>
+    <t>Hours:, Thur: 11AM–9PM, Fri: 11AM–10PM, Sat: 11AM–1AM, Sun: 11AM–5PM</t>
+  </si>
+  <si>
     <t>The BrickHouse / The ClubHouse</t>
   </si>
   <si>
@@ -1487,6 +1730,9 @@
     <t>https://www.facebook.com/ricochettactical</t>
   </si>
   <si>
+    <t>Hours:, Friday: 5pm – 8pm, Saturday: 12pm – 3pm, 3pm – 6pm, Sunday: 12pm – 3pm, 3pm – 6pm</t>
+  </si>
+  <si>
     <t>The War Zone</t>
   </si>
   <si>
@@ -1502,6 +1748,9 @@
     <t>https://www.facebook.com/TheWarZoneAirsoft/</t>
   </si>
   <si>
+    <t>Hours:, Sat-Sun: 9:30AM-4PM</t>
+  </si>
+  <si>
     <t>Watertown Airsoft League</t>
   </si>
   <si>
@@ -1514,6 +1763,9 @@
     <t>https://www.facebook.com/watertownairsoftleague/</t>
   </si>
   <si>
+    <t>Hours:, Wed-Fri 12:00 pm – 8:00 pm, Saturday 10:00 am – 8:00 pm, Sunday 12:00 pm – 6:00 pm</t>
+  </si>
+  <si>
     <t>Zulu 24</t>
   </si>
   <si>
@@ -1529,6 +1781,9 @@
     <t>https://www.facebook.com/zulu24airsoft</t>
   </si>
   <si>
+    <t>Hours:, Sat-Sun: 9:00AM-4PM</t>
+  </si>
+  <si>
     <t>Airsoft Battle Park</t>
   </si>
   <si>
@@ -1544,6 +1799,9 @@
     <t>https://www.facebook.com/ArchangelAirsoftNC/</t>
   </si>
   <si>
+    <t>Hours:, Thurs-Fri: 12PM-5PM</t>
+  </si>
+  <si>
     <t>Cedar Creek Airsoft</t>
   </si>
   <si>
@@ -1583,6 +1841,9 @@
     <t>https://www.facebook.com/PaintballCentral</t>
   </si>
   <si>
+    <t>Hours:, Saturday 9am – 5pm, Sunday 10am – 5pm</t>
+  </si>
+  <si>
     <t>PBC Sports Park – Greensboro</t>
   </si>
   <si>
@@ -1604,6 +1865,9 @@
     <t>https://www.facebook.com/xtremekombatpark</t>
   </si>
   <si>
+    <t>Hours:, Saturday &amp; Sunday: 10:00 am – 6:00 pm, Monday – Friday: 10:00 am – 4:00 pm</t>
+  </si>
+  <si>
     <t>Assault Airsoft Indoor</t>
   </si>
   <si>
@@ -1613,6 +1877,9 @@
     <t>(330) 451-6128</t>
   </si>
   <si>
+    <t>Hours:, Saturday: 10AM–7PM, Sunday: 10AM–6PM</t>
+  </si>
+  <si>
     <t>Fallen Warrior Airsoft</t>
   </si>
   <si>
@@ -1625,6 +1892,9 @@
     <t>https://www.facebook.com/FallenWarriorsAirsoft/</t>
   </si>
   <si>
+    <t>Hours:, Sat: 8:30AM-6PM</t>
+  </si>
+  <si>
     <t>Hidden Spring Ranch</t>
   </si>
   <si>
@@ -1637,6 +1907,9 @@
     <t>https://www.facebook.com/pages/Hidden-Spring-Ranch-Airsoft/520494664694760</t>
   </si>
   <si>
+    <t>Hours:, Sat-Sun: 9AM-7PM</t>
+  </si>
+  <si>
     <t>i70 Paintball and Airsoft</t>
   </si>
   <si>
@@ -1652,6 +1925,9 @@
     <t>https://www.facebook.com/i70paintball/</t>
   </si>
   <si>
+    <t>Hours:, Thursday: 12–6PM, Friday: 12–7PM, Saturday: 10AM–6PM, Sunday: 12–6PM</t>
+  </si>
+  <si>
     <t>Ohio Indoor Airsoft (OIA)</t>
   </si>
   <si>
@@ -1673,6 +1949,9 @@
     <t>https://www.facebook.com/Ohiovalleyairsoft/</t>
   </si>
   <si>
+    <t>Hours:, Friday: 5pm-11pm, Saturday: 11am-11pm, Sunday: 2pm-8pm</t>
+  </si>
+  <si>
     <t>Splatter Park</t>
   </si>
   <si>
@@ -1688,6 +1967,9 @@
     <t>https://www.facebook.com/SplatterPark</t>
   </si>
   <si>
+    <t>Hours:, Sun: 10AM-5PM</t>
+  </si>
+  <si>
     <t>Airsoft Tulsa Indoor Field</t>
   </si>
   <si>
@@ -1703,6 +1985,9 @@
     <t>https://www.facebook.com/TulsaAirsoft/</t>
   </si>
   <si>
+    <t>Hours:, Sunday 12–6PM, Monday-Friday: 12–8PM, Saturday: 11AM–8PM</t>
+  </si>
+  <si>
     <t>D-Day Adventure Park</t>
   </si>
   <si>
@@ -1775,6 +2060,9 @@
     <t>https://www.facebook.com/pages/Gold-Hill-Airsoft/248909538548656</t>
   </si>
   <si>
+    <t>Hours:, Sat: 9:30AM-4PM</t>
+  </si>
+  <si>
     <t>Oregon Airsoft Arena and Tactical Store</t>
   </si>
   <si>
@@ -1790,6 +2078,9 @@
     <t>https://www.facebook.com/oregonairsoftarena/</t>
   </si>
   <si>
+    <t>Hours:, Tuesday-Saturday: 10:30AM–8:30PM, Sunday 10AM–6PM</t>
+  </si>
+  <si>
     <t>Splat Action Paintball</t>
   </si>
   <si>
@@ -1805,6 +2096,9 @@
     <t>https://www.facebook.com/splataction/</t>
   </si>
   <si>
+    <t>Hours:, Sun-Sat: 10AM-5PM</t>
+  </si>
+  <si>
     <t>The SWAMP Paintball and Airsoft</t>
   </si>
   <si>
@@ -1820,6 +2114,9 @@
     <t>https://www.facebook.com/Swamp.PB/</t>
   </si>
   <si>
+    <t>Hours:, Check website for scheduled game days</t>
+  </si>
+  <si>
     <t>Ambush Airsoft and Paintball</t>
   </si>
   <si>
@@ -1847,6 +2144,9 @@
     <t>https://www.facebook.com/eaghq/</t>
   </si>
   <si>
+    <t>Hours:, Open play every other Sunday afternoon</t>
+  </si>
+  <si>
     <t>Linglestown Paintball</t>
   </si>
   <si>
@@ -1874,6 +2174,9 @@
     <t>https://www.facebook.com/mercerairsoftcenter/</t>
   </si>
   <si>
+    <t>Hours:, Friday: 2–10PM, Saturday-Sunday: 10AM–6:30PM</t>
+  </si>
+  <si>
     <t>Poco Loco Paintball Park</t>
   </si>
   <si>
@@ -1886,6 +2189,9 @@
     <t>https://www.facebook.com/pocolocoairsoft/</t>
   </si>
   <si>
+    <t>Hours:, Sun: 9:30AM-4PM</t>
+  </si>
+  <si>
     <t>The Battlegrounds</t>
   </si>
   <si>
@@ -1916,6 +2222,9 @@
     <t>https://www.facebook.com/threeriverspaintball/</t>
   </si>
   <si>
+    <t>Hours:, Tuesday-Sunday: 11AM–5PM</t>
+  </si>
+  <si>
     <t>Battlegroundz</t>
   </si>
   <si>
@@ -1928,6 +2237,9 @@
     <t>https://www.facebook.com/atBGZ/</t>
   </si>
   <si>
+    <t>Hours:, Tuesday-Thursday: 2–8PM, Friday: 4PM–9AM, Saturday-Sunday: 2–8PM</t>
+  </si>
+  <si>
     <t>Extreme Airsoft</t>
   </si>
   <si>
@@ -1943,6 +2255,9 @@
     <t>https://www.facebook.com/ExtremeRI/</t>
   </si>
   <si>
+    <t>Hours:, Tuesday-Thursday: 11AM–7PM, Friday: 11AM–10PM, Saturday: 11AM–12AM, Sunday: 11AM–7PM</t>
+  </si>
+  <si>
     <t>Rhode Island Paintball and Airsoft</t>
   </si>
   <si>
@@ -1985,6 +2300,9 @@
     <t>https://www.facebook.com/battlecatsports</t>
   </si>
   <si>
+    <t>Hours:, Sat: 2pm- 6pm, Sun: 1pm – 6pm</t>
+  </si>
+  <si>
     <t>Black Ops Airsoft – South</t>
   </si>
   <si>
@@ -2000,6 +2318,9 @@
     <t>https://www.facebook.com/BOASouth/</t>
   </si>
   <si>
+    <t>Hours:, Saturday: 9AM–4PM, Sunday: 11AM–3PM</t>
+  </si>
+  <si>
     <t>SQA aka Escue Airsoft</t>
   </si>
   <si>
@@ -2015,6 +2336,9 @@
     <t>https://www.facebook.com/EscueAirsoft</t>
   </si>
   <si>
+    <t>Hours:, Check website for game days</t>
+  </si>
+  <si>
     <t>Bad Karma Airsoft</t>
   </si>
   <si>
@@ -2030,6 +2354,9 @@
     <t>https://www.facebook.com/badkarmaairsoft/</t>
   </si>
   <si>
+    <t>Hours:, Tuesday-Friday: 11AM–7PM, Saturday: 10AM–3PM</t>
+  </si>
+  <si>
     <t>CartCon1</t>
   </si>
   <si>
@@ -2045,6 +2372,9 @@
     <t>https://www.facebook.com/CartCon1.Airsoft/</t>
   </si>
   <si>
+    <t>Hours:, Sat: 9AM-6PM</t>
+  </si>
+  <si>
     <t>Hellhounds Airsoft Field</t>
   </si>
   <si>
@@ -2057,6 +2387,9 @@
     <t>https://www.facebook.com/HHfield</t>
   </si>
   <si>
+    <t>Hours:, Sat: 10AM-5PM</t>
+  </si>
+  <si>
     <t>Nashville Airsoft</t>
   </si>
   <si>
@@ -2072,6 +2405,9 @@
     <t>https://www.facebook.com/NashvilleAirsoft</t>
   </si>
   <si>
+    <t>Hours:, Wednesday-Thursday: 12–7PM, Friday: 3–9PM, Saturday: 10AM–9PM, Sunday 1–6PM</t>
+  </si>
+  <si>
     <t>Resurrection Airsoft</t>
   </si>
   <si>
@@ -2105,6 +2441,9 @@
     <t>https://www.facebook.com/ballsandbruises</t>
   </si>
   <si>
+    <t>Hours:, Sat: 9AM-5PM, Sun: 10AM–5PM</t>
+  </si>
+  <si>
     <t>878 Airsoft</t>
   </si>
   <si>
@@ -2120,6 +2459,9 @@
     <t>https://www.facebook.com/878Airsoft/</t>
   </si>
   <si>
+    <t>Hours:, Sat-Sun: 9AM-6PM</t>
+  </si>
+  <si>
     <t>Airsoft Revolution 15</t>
   </si>
   <si>
@@ -2135,6 +2477,9 @@
     <t>https://www.facebook.com/airsoftrevolution15/</t>
   </si>
   <si>
+    <t>Hours:, Wednesday-Thursday: 12–8PM, Friday: 12–10PM, Saturday: 10AM–10PM, Sunday: 12–8PM</t>
+  </si>
+  <si>
     <t>D14 Airsoft</t>
   </si>
   <si>
@@ -2147,6 +2492,9 @@
     <t>https://www.facebook.com/D14Airsoft/</t>
   </si>
   <si>
+    <t>Hours:, Sat-Sun: 8AM-5PM</t>
+  </si>
+  <si>
     <t>Delta Paintball</t>
   </si>
   <si>
@@ -2162,6 +2510,9 @@
     <t>https://www.facebook.com/DeltaFieldPaintball/</t>
   </si>
   <si>
+    <t>Hours:, Friday: 5–10PM, Saturday-Sunday: 10AM–10PM</t>
+  </si>
+  <si>
     <t>DFW Adventure Park</t>
   </si>
   <si>
@@ -2174,6 +2525,9 @@
     <t>https://www.facebook.com/dfwapairsoft/</t>
   </si>
   <si>
+    <t>Hours:, First and third Saturdays of the month, 9:00 AM – 6:00 PM</t>
+  </si>
+  <si>
     <t>Edinburg Paintball Battlegrounds</t>
   </si>
   <si>
@@ -2189,6 +2543,9 @@
     <t>https://www.facebook.com/edinburgpaintballbattlegrounds/</t>
   </si>
   <si>
+    <t>Hours:, Friday-Saturday: 11AM–9PM, Sunday: 11AM–8PM</t>
+  </si>
+  <si>
     <t>Fun on the Run Field</t>
   </si>
   <si>
@@ -2204,6 +2561,9 @@
     <t>https://www.facebook.com/funontherunpaintball</t>
   </si>
   <si>
+    <t>Hours:, Tues-Sun: 10AM-6PM</t>
+  </si>
+  <si>
     <t>High Ground Airsoft – Spring</t>
   </si>
   <si>
@@ -2219,6 +2579,9 @@
     <t>https://www.facebook.com/pg/EvikeOutpost.HighGround/about/?ref=page_internal</t>
   </si>
   <si>
+    <t>Hours:, Tues-Fri 11:30AM-7PM, Saturday 10:30AM-9PM</t>
+  </si>
+  <si>
     <t>La Vernia Airsoft Field</t>
   </si>
   <si>
@@ -2231,6 +2594,9 @@
     <t>https://www.facebook.com/pages/La-Vernia-Airsoft-Field/153151148132422</t>
   </si>
   <si>
+    <t>Hours:, Sun: 8AM-5PM</t>
+  </si>
+  <si>
     <t>Mission: Airsoft</t>
   </si>
   <si>
@@ -2258,6 +2624,9 @@
     <t>https://www.facebook.com/Paintball-Zone-205254246185886/</t>
   </si>
   <si>
+    <t>Hours:, Monday, Thursday, Friday: 11AM–6PM, Saturday: 10AM–7PM, Sunday: 10AM–7PM</t>
+  </si>
+  <si>
     <t>Paintball Zone – South</t>
   </si>
   <si>
@@ -2282,6 +2651,9 @@
     <t>https://www.facebook.com/playpestoday/</t>
   </si>
   <si>
+    <t>Hours:, Sat-Sun: 10AM</t>
+  </si>
+  <si>
     <t>Tanks Paintball – Sugarland</t>
   </si>
   <si>
@@ -2294,6 +2666,9 @@
     <t>https://www.facebook.com/pages/TANKS-Paintball-Park/129453979814</t>
   </si>
   <si>
+    <t>Hours:, Friday: 12–6PM, Saturday: 9AM–5PM, Sunday: 10AM–5PM</t>
+  </si>
+  <si>
     <t>Temple Tactical and Airsoft</t>
   </si>
   <si>
@@ -2309,6 +2684,9 @@
     <t>https://www.facebook.com/TempleAirsoft/</t>
   </si>
   <si>
+    <t>Hours:, Saturday: 9AM-4:30PM, Sunday: 9AM-4PM</t>
+  </si>
+  <si>
     <t>MilSim City</t>
   </si>
   <si>
@@ -2336,6 +2714,9 @@
     <t>https://www.facebook.com/AugustaAirsoftSV/</t>
   </si>
   <si>
+    <t>Hours:, Tuesday: 5:30-7:30PM, Saturday: 12:30–5PM, Sunday: 12:30–5PM</t>
+  </si>
+  <si>
     <t>Ballahack Airsoft</t>
   </si>
   <si>
@@ -2366,6 +2747,9 @@
     <t>https://www.facebook.com/Bethel-Battlefield-277176202347465/</t>
   </si>
   <si>
+    <t>Hours:, Saturday- Sunday: 9:30AM–4PM</t>
+  </si>
+  <si>
     <t>Pev’s Paintball</t>
   </si>
   <si>
@@ -2378,6 +2762,9 @@
     <t>https://www.facebook.com/Pevs.Paintball/</t>
   </si>
   <si>
+    <t>Hours:, Sat-Sun: 10:30AM-5PM</t>
+  </si>
+  <si>
     <t>RATAC Battlefield</t>
   </si>
   <si>
@@ -2390,6 +2777,9 @@
     <t>https://www.facebook.com/RoanokeAirsoftDotCom?fref=ts</t>
   </si>
   <si>
+    <t>Hours:, Fri-Sat: 10AM-6PM</t>
+  </si>
+  <si>
     <t>XZone Airsoft</t>
   </si>
   <si>
@@ -2402,6 +2792,9 @@
     <t>https://www.facebook.com/XZoneVA</t>
   </si>
   <si>
+    <t>Hours:, Sun: 11AM-6PM</t>
+  </si>
+  <si>
     <t>Go Big Paintball Park</t>
   </si>
   <si>
@@ -2483,6 +2876,9 @@
     <t>https://www.facebook.com/AirsoftArenaWi/</t>
   </si>
   <si>
+    <t>Hours:, Fri: 3PM-9PM Sat-Sun: 10AM-7PM</t>
+  </si>
+  <si>
     <t>BlackOps Airsoft</t>
   </si>
   <si>
@@ -2498,6 +2894,9 @@
     <t>https://www.facebook.com/blackopsbristol/</t>
   </si>
   <si>
+    <t>Hours:, Friday: 3–7PM, Saturday: 9AM–5PM, Sunday: 10AM–5PM</t>
+  </si>
+  <si>
     <t>Edge Paintball and Airsoft</t>
   </si>
   <si>
@@ -2523,6 +2922,9 @@
   </si>
   <si>
     <t>https://www.facebook.com/SiegePaintball/</t>
+  </si>
+  <si>
+    <t>Hours:, Check website for scheduled hours</t>
   </si>
   <si>
     <t>Twin Cities Airsoft</t>
@@ -2998,8 +3400,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5b690aef-6ae7-463b-a883-a8f59d3d2d05}">
-  <dimension ref="A1:E182"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{380233ac-6e15-4f18-8eed-238dee228106}">
+  <dimension ref="A1:F182"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>
   </sheetViews>
@@ -3010,9 +3412,10 @@
     <col min="3" max="3" width="13.5714285714286" customWidth="1"/>
     <col min="4" max="4" width="59.4285714285714" customWidth="1"/>
     <col min="5" max="5" width="88.1428571428571" customWidth="1"/>
+    <col min="6" max="6" width="90.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="12.75">
+    <row r="1" spans="1:6" ht="12.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3028,2893 +3431,3439 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="12.75">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="12.75">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" s="2" customFormat="1" ht="12.75">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="2" customFormat="1" ht="12.75">
       <c r="A3" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="12.75">
+        <v>16</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="12.75">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" s="2" customFormat="1" ht="12.75">
+        <v>21</v>
+      </c>
+      <c r="F4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="2" customFormat="1" ht="12.75">
       <c r="A5" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="12.75">
+        <v>27</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="12.75">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" s="2" customFormat="1" ht="12.75">
+        <v>33</v>
+      </c>
+      <c r="F6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="2" customFormat="1" ht="12.75">
       <c r="A7" s="2" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="12.75">
+        <v>39</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="12.75">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C8" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="D8" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="E8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" s="2" customFormat="1" ht="12.75">
+        <v>45</v>
+      </c>
+      <c r="F8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="2" customFormat="1" ht="12.75">
       <c r="A9" s="2" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="12.75">
+        <v>51</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="12.75">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="B10" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="C10" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="D10" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="E10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" s="2" customFormat="1" ht="12.75">
+        <v>57</v>
+      </c>
+      <c r="F10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" s="2" customFormat="1" ht="12.75">
       <c r="A11" s="2" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="12.75">
+        <v>63</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="12.75">
       <c r="A12" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="B12" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="C12" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="D12" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="E12" t="s">
+        <v>69</v>
+      </c>
+      <c r="F12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" s="2" customFormat="1" ht="12.75">
+      <c r="A13" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="2" customFormat="1" ht="12.75">
-      <c r="A13" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="12.75">
+    <row r="14" spans="1:6" ht="12.75">
       <c r="A14" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="B14" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="C14" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="D14" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="E14" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" s="2" customFormat="1" ht="12.75">
+        <v>80</v>
+      </c>
+      <c r="F14" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" s="2" customFormat="1" ht="12.75">
       <c r="A15" s="2" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="12.75">
+        <v>86</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="12.75">
       <c r="A16" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="B16" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="C16" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="D16" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="E16" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" s="2" customFormat="1" ht="12.75">
+        <v>92</v>
+      </c>
+      <c r="F16" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="2" customFormat="1" ht="12.75">
       <c r="A17" s="2" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="12.75">
+        <v>98</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="12.75">
       <c r="A18" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="B18" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="C18" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="D18" t="s">
+        <v>103</v>
+      </c>
+      <c r="E18" t="s">
+        <v>104</v>
+      </c>
+      <c r="F18" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" s="2" customFormat="1" ht="12.75">
+      <c r="A19" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="12.75">
+      <c r="A20" t="s">
+        <v>110</v>
+      </c>
+      <c r="B20" t="s">
+        <v>111</v>
+      </c>
+      <c r="C20" t="s">
+        <v>112</v>
+      </c>
+      <c r="E20" t="s">
+        <v>113</v>
+      </c>
+      <c r="F20" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" s="2" customFormat="1" ht="12.75">
+      <c r="A21" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="12.75">
+      <c r="A22" t="s">
+        <v>120</v>
+      </c>
+      <c r="B22" t="s">
+        <v>121</v>
+      </c>
+      <c r="C22" t="s">
+        <v>122</v>
+      </c>
+      <c r="D22" t="s">
+        <v>123</v>
+      </c>
+      <c r="E22" t="s">
+        <v>124</v>
+      </c>
+      <c r="F22" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" s="2" customFormat="1" ht="12.75">
+      <c r="A23" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="12.75">
+      <c r="A24" t="s">
+        <v>129</v>
+      </c>
+      <c r="B24" t="s">
+        <v>130</v>
+      </c>
+      <c r="C24" t="s">
+        <v>131</v>
+      </c>
+      <c r="D24" t="s">
+        <v>132</v>
+      </c>
+      <c r="F24" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" s="2" customFormat="1" ht="12.75">
+      <c r="A25" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="12.75">
+      <c r="A26" t="s">
+        <v>140</v>
+      </c>
+      <c r="B26" t="s">
+        <v>141</v>
+      </c>
+      <c r="C26" t="s">
+        <v>142</v>
+      </c>
+      <c r="D26" t="s">
+        <v>143</v>
+      </c>
+      <c r="E26" t="s">
+        <v>144</v>
+      </c>
+      <c r="F26" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" s="2" customFormat="1" ht="12.75">
+      <c r="A27" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="12.75">
+      <c r="A28" t="s">
+        <v>152</v>
+      </c>
+      <c r="B28" t="s">
+        <v>153</v>
+      </c>
+      <c r="C28" t="s">
+        <v>154</v>
+      </c>
+      <c r="D28" t="s">
+        <v>155</v>
+      </c>
+      <c r="E28" t="s">
+        <v>156</v>
+      </c>
+      <c r="F28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" s="2" customFormat="1" ht="12.75">
+      <c r="A29" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="12.75">
+      <c r="A30" t="s">
+        <v>162</v>
+      </c>
+      <c r="B30" t="s">
+        <v>163</v>
+      </c>
+      <c r="C30" t="s">
+        <v>164</v>
+      </c>
+      <c r="D30" t="s">
+        <v>165</v>
+      </c>
+      <c r="E30" t="s">
+        <v>166</v>
+      </c>
+      <c r="F30" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" s="2" customFormat="1" ht="12.75">
+      <c r="A31" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="12.75">
+      <c r="A32" t="s">
+        <v>173</v>
+      </c>
+      <c r="B32" t="s">
+        <v>174</v>
+      </c>
+      <c r="C32" t="s">
+        <v>175</v>
+      </c>
+      <c r="D32" t="s">
+        <v>176</v>
+      </c>
+      <c r="E32" t="s">
+        <v>177</v>
+      </c>
+      <c r="F32" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" s="2" customFormat="1" ht="12.75">
+      <c r="A33" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="12.75">
+      <c r="A34" t="s">
+        <v>185</v>
+      </c>
+      <c r="B34" t="s">
+        <v>186</v>
+      </c>
+      <c r="C34" t="s">
+        <v>187</v>
+      </c>
+      <c r="D34" t="s">
+        <v>188</v>
+      </c>
+      <c r="E34" t="s">
+        <v>189</v>
+      </c>
+      <c r="F34" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" s="2" customFormat="1" ht="12.75">
+      <c r="A35" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="12.75">
+      <c r="A36" t="s">
+        <v>197</v>
+      </c>
+      <c r="B36" t="s">
+        <v>198</v>
+      </c>
+      <c r="C36" t="s">
+        <v>199</v>
+      </c>
+      <c r="D36" t="s">
+        <v>200</v>
+      </c>
+      <c r="E36" t="s">
+        <v>201</v>
+      </c>
+      <c r="F36" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" s="2" customFormat="1" ht="12.75">
+      <c r="A37" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="12.75">
+      <c r="A38" t="s">
+        <v>209</v>
+      </c>
+      <c r="B38" t="s">
+        <v>210</v>
+      </c>
+      <c r="C38" t="s">
+        <v>211</v>
+      </c>
+      <c r="D38" t="s">
+        <v>212</v>
+      </c>
+      <c r="E38" t="s">
+        <v>213</v>
+      </c>
+      <c r="F38" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" s="2" customFormat="1" ht="12.75">
+      <c r="A39" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="12.75">
+      <c r="A40" t="s">
+        <v>218</v>
+      </c>
+      <c r="B40" t="s">
+        <v>219</v>
+      </c>
+      <c r="C40" t="s">
+        <v>220</v>
+      </c>
+      <c r="D40" t="s">
+        <v>221</v>
+      </c>
+      <c r="E40" t="s">
+        <v>222</v>
+      </c>
+      <c r="F40" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" s="2" customFormat="1" ht="12.75">
+      <c r="A41" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="12.75">
+      <c r="A42" t="s">
+        <v>230</v>
+      </c>
+      <c r="B42" t="s">
+        <v>231</v>
+      </c>
+      <c r="C42" t="s">
+        <v>232</v>
+      </c>
+      <c r="D42" t="s">
+        <v>233</v>
+      </c>
+      <c r="E42" t="s">
+        <v>234</v>
+      </c>
+      <c r="F42" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" s="2" customFormat="1" ht="12.75">
+      <c r="A43" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="12.75">
+      <c r="A44" t="s">
+        <v>241</v>
+      </c>
+      <c r="B44" t="s">
+        <v>242</v>
+      </c>
+      <c r="C44" t="s">
+        <v>243</v>
+      </c>
+      <c r="D44" t="s">
+        <v>244</v>
+      </c>
+      <c r="F44" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" s="2" customFormat="1" ht="12.75">
+      <c r="A45" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="12.75">
+      <c r="A46" t="s">
+        <v>252</v>
+      </c>
+      <c r="B46" t="s">
+        <v>253</v>
+      </c>
+      <c r="D46" t="s">
+        <v>254</v>
+      </c>
+      <c r="E46" t="s">
+        <v>255</v>
+      </c>
+      <c r="F46" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" s="2" customFormat="1" ht="12.75">
+      <c r="A47" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="12.75">
+      <c r="A48" t="s">
+        <v>263</v>
+      </c>
+      <c r="B48" t="s">
+        <v>264</v>
+      </c>
+      <c r="C48" t="s">
+        <v>265</v>
+      </c>
+      <c r="E48" t="s">
+        <v>266</v>
+      </c>
+      <c r="F48" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" s="2" customFormat="1" ht="12.75">
+      <c r="A49" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="12.75">
+      <c r="A50" t="s">
+        <v>273</v>
+      </c>
+      <c r="B50" t="s">
+        <v>274</v>
+      </c>
+      <c r="C50" t="s">
+        <v>275</v>
+      </c>
+      <c r="D50" t="s">
+        <v>276</v>
+      </c>
+      <c r="E50" t="s">
+        <v>277</v>
+      </c>
+      <c r="F50" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" s="2" customFormat="1" ht="12.75">
+      <c r="A51" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="12.75">
+      <c r="A52" t="s">
+        <v>284</v>
+      </c>
+      <c r="B52" t="s">
+        <v>285</v>
+      </c>
+      <c r="C52" t="s">
+        <v>286</v>
+      </c>
+      <c r="D52" t="s">
+        <v>287</v>
+      </c>
+      <c r="E52" t="s">
+        <v>288</v>
+      </c>
+      <c r="F52" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" s="2" customFormat="1" ht="12.75">
+      <c r="A53" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="12.75">
+      <c r="A54" t="s">
+        <v>296</v>
+      </c>
+      <c r="B54" t="s">
+        <v>297</v>
+      </c>
+      <c r="C54" t="s">
+        <v>298</v>
+      </c>
+      <c r="D54" t="s">
+        <v>299</v>
+      </c>
+      <c r="E54" t="s">
+        <v>300</v>
+      </c>
+      <c r="F54" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" s="2" customFormat="1" ht="12.75">
+      <c r="A55" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="12.75">
+      <c r="A56" t="s">
+        <v>307</v>
+      </c>
+      <c r="B56" t="s">
+        <v>308</v>
+      </c>
+      <c r="C56" t="s">
+        <v>309</v>
+      </c>
+      <c r="D56" t="s">
+        <v>310</v>
+      </c>
+      <c r="E56" t="s">
+        <v>311</v>
+      </c>
+      <c r="F56" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" s="2" customFormat="1" ht="12.75">
+      <c r="A57" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="12.75">
+      <c r="A58" t="s">
+        <v>319</v>
+      </c>
+      <c r="B58" t="s">
+        <v>320</v>
+      </c>
+      <c r="C58" t="s">
+        <v>321</v>
+      </c>
+      <c r="D58" t="s">
+        <v>322</v>
+      </c>
+      <c r="E58" t="s">
+        <v>323</v>
+      </c>
+      <c r="F58" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" s="2" customFormat="1" ht="12.75">
+      <c r="A59" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="12.75">
+      <c r="A60" t="s">
+        <v>330</v>
+      </c>
+      <c r="B60" t="s">
+        <v>331</v>
+      </c>
+      <c r="C60" t="s">
+        <v>332</v>
+      </c>
+      <c r="D60" t="s">
+        <v>333</v>
+      </c>
+      <c r="E60" t="s">
+        <v>334</v>
+      </c>
+      <c r="F60" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" s="2" customFormat="1" ht="12.75">
+      <c r="A61" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="12.75">
+      <c r="A62" t="s">
+        <v>342</v>
+      </c>
+      <c r="B62" t="s">
+        <v>343</v>
+      </c>
+      <c r="C62" t="s">
+        <v>344</v>
+      </c>
+      <c r="E62" t="s">
+        <v>345</v>
+      </c>
+      <c r="F62" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" s="2" customFormat="1" ht="12.75">
+      <c r="A63" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="12.75">
+      <c r="A64" t="s">
+        <v>353</v>
+      </c>
+      <c r="B64" t="s">
+        <v>354</v>
+      </c>
+      <c r="E64" t="s">
+        <v>355</v>
+      </c>
+      <c r="F64" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" s="2" customFormat="1" ht="12.75">
+      <c r="A65" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="12.75">
+      <c r="A66" t="s">
+        <v>362</v>
+      </c>
+      <c r="B66" t="s">
+        <v>363</v>
+      </c>
+      <c r="C66" t="s">
+        <v>364</v>
+      </c>
+      <c r="D66" t="s">
+        <v>365</v>
+      </c>
+      <c r="E66" t="s">
+        <v>366</v>
+      </c>
+      <c r="F66" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" s="2" customFormat="1" ht="12.75">
+      <c r="A67" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="12.75">
+      <c r="A68" t="s">
+        <v>372</v>
+      </c>
+      <c r="B68" t="s">
+        <v>373</v>
+      </c>
+      <c r="C68" t="s">
+        <v>374</v>
+      </c>
+      <c r="D68" t="s">
+        <v>375</v>
+      </c>
+      <c r="E68" t="s">
+        <v>376</v>
+      </c>
+      <c r="F68" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" s="2" customFormat="1" ht="12.75">
+      <c r="A69" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="12.75">
+      <c r="A70" t="s">
+        <v>383</v>
+      </c>
+      <c r="B70" t="s">
+        <v>384</v>
+      </c>
+      <c r="C70" t="s">
+        <v>385</v>
+      </c>
+      <c r="D70" t="s">
+        <v>386</v>
+      </c>
+      <c r="E70" t="s">
+        <v>387</v>
+      </c>
+      <c r="F70" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" s="2" customFormat="1" ht="12.75">
+      <c r="A71" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="12.75">
+      <c r="A72" t="s">
+        <v>395</v>
+      </c>
+      <c r="B72" t="s">
+        <v>396</v>
+      </c>
+      <c r="C72" t="s">
+        <v>397</v>
+      </c>
+      <c r="D72" t="s">
+        <v>398</v>
+      </c>
+      <c r="E72" t="s">
+        <v>399</v>
+      </c>
+      <c r="F72" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" s="2" customFormat="1" ht="12.75">
+      <c r="A73" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="12.75">
+      <c r="A74" t="s">
+        <v>407</v>
+      </c>
+      <c r="B74" t="s">
+        <v>408</v>
+      </c>
+      <c r="C74" t="s">
+        <v>409</v>
+      </c>
+      <c r="D74" t="s">
+        <v>410</v>
+      </c>
+      <c r="E74" t="s">
+        <v>411</v>
+      </c>
+      <c r="F74" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" s="2" customFormat="1" ht="12.75">
+      <c r="A75" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="12.75">
+      <c r="A76" t="s">
+        <v>418</v>
+      </c>
+      <c r="B76" t="s">
+        <v>419</v>
+      </c>
+      <c r="C76" t="s">
+        <v>420</v>
+      </c>
+      <c r="E76" t="s">
+        <v>421</v>
+      </c>
+      <c r="F76" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" s="2" customFormat="1" ht="12.75">
+      <c r="A77" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="12.75">
+      <c r="A78" t="s">
+        <v>427</v>
+      </c>
+      <c r="B78" t="s">
+        <v>428</v>
+      </c>
+      <c r="C78" t="s">
+        <v>429</v>
+      </c>
+      <c r="D78" t="s">
+        <v>430</v>
+      </c>
+      <c r="E78" t="s">
+        <v>431</v>
+      </c>
+      <c r="F78" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" s="2" customFormat="1" ht="12.75">
+      <c r="A79" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="12.75">
+      <c r="A80" t="s">
+        <v>437</v>
+      </c>
+      <c r="B80" t="s">
+        <v>438</v>
+      </c>
+      <c r="C80" t="s">
+        <v>439</v>
+      </c>
+      <c r="D80" t="s">
+        <v>440</v>
+      </c>
+      <c r="E80" t="s">
+        <v>441</v>
+      </c>
+      <c r="F80" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" s="2" customFormat="1" ht="12.75">
+      <c r="A81" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="12.75">
+      <c r="A82" t="s">
+        <v>449</v>
+      </c>
+      <c r="B82" t="s">
+        <v>450</v>
+      </c>
+      <c r="C82" t="s">
+        <v>451</v>
+      </c>
+      <c r="D82" t="s">
+        <v>452</v>
+      </c>
+      <c r="E82" t="s">
+        <v>453</v>
+      </c>
+      <c r="F82" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" s="2" customFormat="1" ht="12.75">
+      <c r="A83" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="12.75">
+      <c r="A84" t="s">
+        <v>460</v>
+      </c>
+      <c r="B84" t="s">
+        <v>461</v>
+      </c>
+      <c r="C84" t="s">
+        <v>456</v>
+      </c>
+      <c r="D84" t="s">
+        <v>462</v>
+      </c>
+      <c r="E84" t="s">
+        <v>463</v>
+      </c>
+      <c r="F84" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" s="2" customFormat="1" ht="12.75">
+      <c r="A85" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="12.75">
+      <c r="A86" t="s">
+        <v>469</v>
+      </c>
+      <c r="B86" t="s">
+        <v>470</v>
+      </c>
+      <c r="C86" t="s">
+        <v>471</v>
+      </c>
+      <c r="D86" t="s">
+        <v>472</v>
+      </c>
+      <c r="E86" t="s">
+        <v>473</v>
+      </c>
+      <c r="F86" t="s">
         <v>87</v>
       </c>
-      <c r="E18" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" s="2" customFormat="1" ht="12.75">
-      <c r="A19" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="12.75">
-      <c r="A20" t="s">
-        <v>92</v>
-      </c>
-      <c r="B20" t="s">
-        <v>93</v>
-      </c>
-      <c r="C20" t="s">
-        <v>94</v>
-      </c>
-      <c r="E20" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" s="2" customFormat="1" ht="12.75">
-      <c r="A21" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="12.75">
-      <c r="A22" t="s">
-        <v>101</v>
-      </c>
-      <c r="B22" t="s">
-        <v>102</v>
-      </c>
-      <c r="C22" t="s">
-        <v>103</v>
-      </c>
-      <c r="D22" t="s">
-        <v>104</v>
-      </c>
-      <c r="E22" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" s="2" customFormat="1" ht="12.75">
-      <c r="A23" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="12.75">
-      <c r="A24" t="s">
+    </row>
+    <row r="87" spans="1:6" s="2" customFormat="1" ht="12.75">
+      <c r="A87" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="12.75">
+      <c r="A88" t="s">
+        <v>479</v>
+      </c>
+      <c r="B88" t="s">
+        <v>480</v>
+      </c>
+      <c r="C88" t="s">
+        <v>481</v>
+      </c>
+      <c r="E88" t="s">
+        <v>482</v>
+      </c>
+      <c r="F88" t="s">
         <v>109</v>
       </c>
-      <c r="B24" t="s">
-        <v>110</v>
-      </c>
-      <c r="C24" t="s">
-        <v>111</v>
-      </c>
-      <c r="D24" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" s="2" customFormat="1" ht="12.75">
-      <c r="A25" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="12.75">
-      <c r="A26" t="s">
-        <v>118</v>
-      </c>
-      <c r="B26" t="s">
-        <v>119</v>
-      </c>
-      <c r="C26" t="s">
-        <v>120</v>
-      </c>
-      <c r="D26" t="s">
-        <v>121</v>
-      </c>
-      <c r="E26" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" s="2" customFormat="1" ht="12.75">
-      <c r="A27" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="E27" s="2" t="s">
+    </row>
+    <row r="89" spans="1:6" s="2" customFormat="1" ht="12.75">
+      <c r="A89" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="12.75">
+      <c r="A90" t="s">
+        <v>489</v>
+      </c>
+      <c r="B90" t="s">
+        <v>490</v>
+      </c>
+      <c r="C90" t="s">
+        <v>491</v>
+      </c>
+      <c r="D90" t="s">
+        <v>492</v>
+      </c>
+      <c r="E90" t="s">
+        <v>493</v>
+      </c>
+      <c r="F90" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" s="2" customFormat="1" ht="12.75">
+      <c r="A91" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="12.75">
+      <c r="A92" t="s">
+        <v>501</v>
+      </c>
+      <c r="B92" t="s">
+        <v>502</v>
+      </c>
+      <c r="C92" t="s">
+        <v>503</v>
+      </c>
+      <c r="D92" t="s">
+        <v>504</v>
+      </c>
+      <c r="E92" t="s">
+        <v>505</v>
+      </c>
+      <c r="F92" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" s="2" customFormat="1" ht="12.75">
+      <c r="A93" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="12.75">
+      <c r="A94" t="s">
+        <v>513</v>
+      </c>
+      <c r="B94" t="s">
+        <v>514</v>
+      </c>
+      <c r="C94" t="s">
+        <v>515</v>
+      </c>
+      <c r="D94" t="s">
+        <v>516</v>
+      </c>
+      <c r="E94" t="s">
+        <v>517</v>
+      </c>
+      <c r="F94" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" s="2" customFormat="1" ht="12.75">
+      <c r="A95" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="12.75">
+      <c r="A96" t="s">
+        <v>524</v>
+      </c>
+      <c r="B96" t="s">
+        <v>525</v>
+      </c>
+      <c r="C96" t="s">
+        <v>526</v>
+      </c>
+      <c r="E96" t="s">
+        <v>527</v>
+      </c>
+      <c r="F96" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" s="2" customFormat="1" ht="12.75">
+      <c r="A97" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="12.75">
+      <c r="A98" t="s">
+        <v>533</v>
+      </c>
+      <c r="B98" t="s">
+        <v>534</v>
+      </c>
+      <c r="C98" t="s">
+        <v>535</v>
+      </c>
+      <c r="D98" t="s">
+        <v>536</v>
+      </c>
+      <c r="E98" t="s">
+        <v>537</v>
+      </c>
+      <c r="F98" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" s="2" customFormat="1" ht="12.75">
+      <c r="A99" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" ht="12.75">
+      <c r="A100" t="s">
+        <v>545</v>
+      </c>
+      <c r="B100" t="s">
+        <v>546</v>
+      </c>
+      <c r="C100" t="s">
+        <v>547</v>
+      </c>
+      <c r="E100" t="s">
+        <v>548</v>
+      </c>
+      <c r="F100" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" s="2" customFormat="1" ht="12.75">
+      <c r="A101" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" ht="12.75">
+      <c r="A102" t="s">
+        <v>555</v>
+      </c>
+      <c r="B102" t="s">
+        <v>556</v>
+      </c>
+      <c r="C102" t="s">
+        <v>557</v>
+      </c>
+      <c r="D102" t="s">
+        <v>558</v>
+      </c>
+      <c r="E102" t="s">
+        <v>559</v>
+      </c>
+      <c r="F102" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" s="2" customFormat="1" ht="12.75">
+      <c r="A103" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" ht="12.75">
+      <c r="A104" t="s">
+        <v>566</v>
+      </c>
+      <c r="B104" t="s">
+        <v>567</v>
+      </c>
+      <c r="C104" t="s">
+        <v>568</v>
+      </c>
+      <c r="D104" t="s">
+        <v>569</v>
+      </c>
+      <c r="E104" t="s">
+        <v>570</v>
+      </c>
+      <c r="F104" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" s="2" customFormat="1" ht="12.75">
+      <c r="A105" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" ht="12.75">
+      <c r="A106" t="s">
+        <v>578</v>
+      </c>
+      <c r="B106" t="s">
+        <v>579</v>
+      </c>
+      <c r="C106" t="s">
+        <v>580</v>
+      </c>
+      <c r="E106" t="s">
+        <v>581</v>
+      </c>
+      <c r="F106" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" s="2" customFormat="1" ht="12.75">
+      <c r="A107" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" ht="12.75">
+      <c r="A108" t="s">
+        <v>589</v>
+      </c>
+      <c r="B108" t="s">
+        <v>590</v>
+      </c>
+      <c r="C108" t="s">
+        <v>591</v>
+      </c>
+      <c r="D108" t="s">
+        <v>592</v>
+      </c>
+      <c r="E108" t="s">
+        <v>593</v>
+      </c>
+      <c r="F108" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" s="2" customFormat="1" ht="12.75">
+      <c r="A109" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" ht="12.75">
+      <c r="A110" t="s">
+        <v>600</v>
+      </c>
+      <c r="B110" t="s">
+        <v>601</v>
+      </c>
+      <c r="C110" t="s">
+        <v>602</v>
+      </c>
+      <c r="E110" t="s">
+        <v>603</v>
+      </c>
+      <c r="F110" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" s="2" customFormat="1" ht="12.75">
+      <c r="A111" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" ht="12.75">
+      <c r="A112" t="s">
+        <v>609</v>
+      </c>
+      <c r="B112" t="s">
+        <v>610</v>
+      </c>
+      <c r="C112" t="s">
+        <v>611</v>
+      </c>
+      <c r="E112" t="s">
+        <v>607</v>
+      </c>
+      <c r="F112" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" s="2" customFormat="1" ht="12.75">
+      <c r="A113" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" ht="12.75">
+      <c r="A114" t="s">
+        <v>617</v>
+      </c>
+      <c r="B114" t="s">
+        <v>618</v>
+      </c>
+      <c r="C114" t="s">
+        <v>619</v>
+      </c>
+      <c r="F114" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" s="2" customFormat="1" ht="12.75">
+      <c r="A115" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" ht="12.75">
+      <c r="A116" t="s">
+        <v>626</v>
+      </c>
+      <c r="B116" t="s">
+        <v>627</v>
+      </c>
+      <c r="C116" t="s">
+        <v>628</v>
+      </c>
+      <c r="E116" t="s">
+        <v>629</v>
+      </c>
+      <c r="F116" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" s="2" customFormat="1" ht="12.75">
+      <c r="A117" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" ht="12.75">
+      <c r="A118" t="s">
+        <v>637</v>
+      </c>
+      <c r="B118" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" ht="12.75">
-      <c r="A28" t="s">
-        <v>128</v>
-      </c>
-      <c r="B28" t="s">
-        <v>129</v>
-      </c>
-      <c r="C28" t="s">
-        <v>130</v>
-      </c>
-      <c r="D28" t="s">
-        <v>131</v>
-      </c>
-      <c r="E28" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" s="2" customFormat="1" ht="12.75">
-      <c r="A29" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="12.75">
-      <c r="A30" t="s">
-        <v>138</v>
-      </c>
-      <c r="B30" t="s">
-        <v>139</v>
-      </c>
-      <c r="C30" t="s">
-        <v>140</v>
-      </c>
-      <c r="D30" t="s">
-        <v>141</v>
-      </c>
-      <c r="E30" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" s="2" customFormat="1" ht="12.75">
-      <c r="A31" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="12.75">
-      <c r="A32" t="s">
-        <v>147</v>
-      </c>
-      <c r="B32" t="s">
-        <v>148</v>
-      </c>
-      <c r="C32" t="s">
-        <v>149</v>
-      </c>
-      <c r="D32" t="s">
-        <v>150</v>
-      </c>
-      <c r="E32" t="s">
+      <c r="E118" t="s">
+        <v>638</v>
+      </c>
+      <c r="F118" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" s="2" customFormat="1" ht="12.75">
+      <c r="A119" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>643</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" ht="12.75">
+      <c r="A120" t="s">
+        <v>645</v>
+      </c>
+      <c r="B120" t="s">
+        <v>646</v>
+      </c>
+      <c r="C120" t="s">
+        <v>647</v>
+      </c>
+      <c r="D120" t="s">
+        <v>648</v>
+      </c>
+      <c r="E120" t="s">
+        <v>649</v>
+      </c>
+      <c r="F120" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" s="2" customFormat="1" ht="12.75">
+      <c r="A121" s="2" t="s">
+        <v>651</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>652</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>655</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" ht="12.75">
+      <c r="A122" t="s">
+        <v>657</v>
+      </c>
+      <c r="B122" t="s">
+        <v>658</v>
+      </c>
+      <c r="C122" t="s">
+        <v>659</v>
+      </c>
+      <c r="D122" t="s">
+        <v>660</v>
+      </c>
+      <c r="E122" t="s">
+        <v>661</v>
+      </c>
+      <c r="F122" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" s="2" customFormat="1" ht="12.75">
+      <c r="A123" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>665</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" ht="12.75">
+      <c r="A124" t="s">
+        <v>667</v>
+      </c>
+      <c r="B124" t="s">
+        <v>668</v>
+      </c>
+      <c r="C124" t="s">
+        <v>669</v>
+      </c>
+      <c r="D124" t="s">
+        <v>670</v>
+      </c>
+      <c r="E124" t="s">
+        <v>671</v>
+      </c>
+      <c r="F124" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" s="2" customFormat="1" ht="12.75">
+      <c r="A125" s="2" t="s">
+        <v>672</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>674</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>676</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" ht="12.75">
+      <c r="A126" t="s">
+        <v>677</v>
+      </c>
+      <c r="B126" t="s">
+        <v>678</v>
+      </c>
+      <c r="C126" t="s">
+        <v>679</v>
+      </c>
+      <c r="E126" t="s">
+        <v>680</v>
+      </c>
+      <c r="F126" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" s="2" customFormat="1" ht="12.75">
+      <c r="A127" s="2" t="s">
+        <v>682</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>684</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>685</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" ht="12.75">
+      <c r="A128" t="s">
+        <v>688</v>
+      </c>
+      <c r="B128" t="s">
+        <v>689</v>
+      </c>
+      <c r="C128" t="s">
+        <v>690</v>
+      </c>
+      <c r="D128" t="s">
+        <v>691</v>
+      </c>
+      <c r="E128" t="s">
+        <v>692</v>
+      </c>
+      <c r="F128" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" s="2" customFormat="1" ht="12.75">
+      <c r="A129" s="2" t="s">
+        <v>694</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>695</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>696</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>697</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>698</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" ht="12.75">
+      <c r="A130" t="s">
+        <v>700</v>
+      </c>
+      <c r="B130" t="s">
+        <v>701</v>
+      </c>
+      <c r="C130" t="s">
+        <v>702</v>
+      </c>
+      <c r="E130" t="s">
+        <v>703</v>
+      </c>
+      <c r="F130" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" s="2" customFormat="1" ht="12.75">
+      <c r="A131" s="2" t="s">
+        <v>704</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>705</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>707</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>708</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" ht="12.75">
+      <c r="A132" t="s">
+        <v>710</v>
+      </c>
+      <c r="B132" t="s">
+        <v>711</v>
+      </c>
+      <c r="C132" t="s">
+        <v>712</v>
+      </c>
+      <c r="E132" t="s">
+        <v>713</v>
+      </c>
+      <c r="F132" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" s="2" customFormat="1" ht="12.75">
+      <c r="A133" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>715</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>716</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>717</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>718</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" ht="12.75">
+      <c r="A134" t="s">
+        <v>720</v>
+      </c>
+      <c r="B134" t="s">
+        <v>721</v>
+      </c>
+      <c r="C134" t="s">
+        <v>722</v>
+      </c>
+      <c r="E134" t="s">
+        <v>723</v>
+      </c>
+      <c r="F134" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" s="2" customFormat="1" ht="12.75">
+      <c r="A135" s="2" t="s">
+        <v>725</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>726</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>727</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>728</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>729</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" ht="12.75">
+      <c r="A136" t="s">
+        <v>730</v>
+      </c>
+      <c r="B136" t="s">
+        <v>731</v>
+      </c>
+      <c r="C136" t="s">
+        <v>732</v>
+      </c>
+      <c r="D136" t="s">
+        <v>733</v>
+      </c>
+      <c r="E136" t="s">
+        <v>734</v>
+      </c>
+      <c r="F136" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" s="2" customFormat="1" ht="12.75">
+      <c r="A137" s="2" t="s">
+        <v>736</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>737</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>738</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>739</v>
+      </c>
+      <c r="F137" s="2" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" ht="12.75">
+      <c r="A138" t="s">
+        <v>741</v>
+      </c>
+      <c r="B138" t="s">
+        <v>742</v>
+      </c>
+      <c r="C138" t="s">
+        <v>743</v>
+      </c>
+      <c r="D138" t="s">
+        <v>744</v>
+      </c>
+      <c r="E138" t="s">
+        <v>745</v>
+      </c>
+      <c r="F138" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" s="2" customFormat="1" ht="12.75">
+      <c r="A139" s="2" t="s">
+        <v>747</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>749</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>750</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>751</v>
+      </c>
+      <c r="F139" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" ht="12.75">
+      <c r="A140" t="s">
+        <v>752</v>
+      </c>
+      <c r="B140" t="s">
+        <v>753</v>
+      </c>
+      <c r="C140" t="s">
+        <v>754</v>
+      </c>
+      <c r="E140" t="s">
+        <v>755</v>
+      </c>
+      <c r="F140" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" s="2" customFormat="1" ht="12.75">
+      <c r="A141" s="2" t="s">
+        <v>756</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>757</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>759</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>760</v>
+      </c>
+      <c r="F141" s="2" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" ht="12.75">
+      <c r="A142" t="s">
+        <v>762</v>
+      </c>
+      <c r="B142" t="s">
+        <v>763</v>
+      </c>
+      <c r="C142" t="s">
+        <v>764</v>
+      </c>
+      <c r="D142" t="s">
+        <v>765</v>
+      </c>
+      <c r="E142" t="s">
+        <v>766</v>
+      </c>
+      <c r="F142" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" s="2" customFormat="1" ht="12.75">
+      <c r="A143" s="2" t="s">
+        <v>768</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>769</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>770</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>771</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>772</v>
+      </c>
+      <c r="F143" s="2" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" ht="12.75">
+      <c r="A144" t="s">
+        <v>774</v>
+      </c>
+      <c r="B144" t="s">
+        <v>775</v>
+      </c>
+      <c r="C144" t="s">
+        <v>776</v>
+      </c>
+      <c r="D144" t="s">
+        <v>777</v>
+      </c>
+      <c r="E144" t="s">
+        <v>778</v>
+      </c>
+      <c r="F144" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" s="2" customFormat="1" ht="12.75">
+      <c r="A145" s="2" t="s">
+        <v>780</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>781</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>782</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>783</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>784</v>
+      </c>
+      <c r="F145" s="2" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" ht="12.75">
+      <c r="A146" t="s">
+        <v>786</v>
+      </c>
+      <c r="B146" t="s">
+        <v>787</v>
+      </c>
+      <c r="C146" t="s">
+        <v>788</v>
+      </c>
+      <c r="E146" t="s">
+        <v>789</v>
+      </c>
+      <c r="F146" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" s="2" customFormat="1" ht="12.75">
+      <c r="A147" s="2" t="s">
+        <v>791</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>792</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>793</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>794</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>795</v>
+      </c>
+      <c r="F147" s="2" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" ht="12.75">
+      <c r="A148" t="s">
+        <v>797</v>
+      </c>
+      <c r="B148" t="s">
+        <v>798</v>
+      </c>
+      <c r="D148" t="s">
+        <v>799</v>
+      </c>
+      <c r="E148" t="s">
+        <v>800</v>
+      </c>
+      <c r="F148" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" s="2" customFormat="1" ht="12.75">
+      <c r="A149" s="2" t="s">
+        <v>801</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>803</v>
+      </c>
+      <c r="F149" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" ht="12.75">
+      <c r="A150" t="s">
+        <v>804</v>
+      </c>
+      <c r="B150" t="s">
+        <v>805</v>
+      </c>
+      <c r="C150" t="s">
+        <v>806</v>
+      </c>
+      <c r="E150" t="s">
+        <v>807</v>
+      </c>
+      <c r="F150" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" s="2" customFormat="1" ht="12.75">
+      <c r="A151" s="2" t="s">
+        <v>809</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>810</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>811</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>812</v>
+      </c>
+      <c r="E151" s="2" t="s">
+        <v>813</v>
+      </c>
+      <c r="F151" s="2" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" ht="12.75">
+      <c r="A152" t="s">
+        <v>815</v>
+      </c>
+      <c r="B152" t="s">
+        <v>816</v>
+      </c>
+      <c r="C152" t="s">
+        <v>817</v>
+      </c>
+      <c r="D152" t="s">
+        <v>818</v>
+      </c>
+      <c r="E152" t="s">
+        <v>819</v>
+      </c>
+      <c r="F152" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" s="2" customFormat="1" ht="12.75">
+      <c r="A153" s="2" t="s">
+        <v>821</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>822</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>823</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>824</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" ht="12.75">
+      <c r="A154" t="s">
+        <v>826</v>
+      </c>
+      <c r="B154" t="s">
+        <v>827</v>
+      </c>
+      <c r="C154" t="s">
+        <v>828</v>
+      </c>
+      <c r="D154" t="s">
+        <v>829</v>
+      </c>
+      <c r="E154" t="s">
+        <v>830</v>
+      </c>
+      <c r="F154" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" s="2" customFormat="1" ht="12.75">
+      <c r="A155" s="2" t="s">
+        <v>832</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>833</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>834</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>835</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" ht="12.75">
+      <c r="A156" t="s">
+        <v>837</v>
+      </c>
+      <c r="B156" t="s">
+        <v>838</v>
+      </c>
+      <c r="C156" t="s">
+        <v>839</v>
+      </c>
+      <c r="D156" t="s">
+        <v>840</v>
+      </c>
+      <c r="E156" t="s">
+        <v>841</v>
+      </c>
+      <c r="F156" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" s="2" customFormat="1" ht="12.75">
+      <c r="A157" s="2" t="s">
+        <v>843</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>844</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>845</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>846</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>847</v>
+      </c>
+      <c r="F157" s="2" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" ht="12.75">
+      <c r="A158" t="s">
+        <v>849</v>
+      </c>
+      <c r="B158" t="s">
+        <v>850</v>
+      </c>
+      <c r="C158" t="s">
+        <v>851</v>
+      </c>
+      <c r="D158" t="s">
+        <v>852</v>
+      </c>
+      <c r="E158" t="s">
+        <v>853</v>
+      </c>
+      <c r="F158" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" s="2" customFormat="1" ht="12.75">
+      <c r="A159" s="2" t="s">
+        <v>855</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>856</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>857</v>
+      </c>
+      <c r="E159" s="2" t="s">
+        <v>858</v>
+      </c>
+      <c r="F159" s="2" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" ht="12.75">
+      <c r="A160" t="s">
+        <v>860</v>
+      </c>
+      <c r="B160" t="s">
+        <v>861</v>
+      </c>
+      <c r="C160" t="s">
+        <v>862</v>
+      </c>
+      <c r="D160" t="s">
+        <v>863</v>
+      </c>
+      <c r="E160" t="s">
+        <v>864</v>
+      </c>
+      <c r="F160" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" s="2" customFormat="1" ht="12.75">
+      <c r="A161" s="2" t="s">
+        <v>865</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>866</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>867</v>
+      </c>
+      <c r="E161" s="2" t="s">
+        <v>868</v>
+      </c>
+      <c r="F161" s="2" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" ht="12.75">
+      <c r="A162" t="s">
+        <v>870</v>
+      </c>
+      <c r="B162" t="s">
+        <v>871</v>
+      </c>
+      <c r="C162" t="s">
+        <v>867</v>
+      </c>
+      <c r="D162" t="s">
+        <v>872</v>
+      </c>
+      <c r="E162" t="s">
+        <v>868</v>
+      </c>
+      <c r="F162" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" s="2" customFormat="1" ht="12.75">
+      <c r="A163" s="2" t="s">
+        <v>873</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>874</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>875</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>876</v>
+      </c>
+      <c r="E163" s="2" t="s">
+        <v>877</v>
+      </c>
+      <c r="F163" s="2" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" ht="12.75">
+      <c r="A164" t="s">
+        <v>879</v>
+      </c>
+      <c r="B164" t="s">
+        <v>880</v>
+      </c>
+      <c r="C164" t="s">
+        <v>881</v>
+      </c>
+      <c r="E164" t="s">
+        <v>882</v>
+      </c>
+      <c r="F164" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" s="2" customFormat="1" ht="12.75">
+      <c r="A165" s="2" t="s">
+        <v>884</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>885</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>886</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>887</v>
+      </c>
+      <c r="E165" s="2" t="s">
+        <v>888</v>
+      </c>
+      <c r="F165" s="2" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" ht="12.75">
+      <c r="A166" t="s">
+        <v>890</v>
+      </c>
+      <c r="B166" t="s">
+        <v>891</v>
+      </c>
+      <c r="C166" t="s">
+        <v>892</v>
+      </c>
+      <c r="D166" t="s">
+        <v>893</v>
+      </c>
+      <c r="E166" t="s">
+        <v>894</v>
+      </c>
+      <c r="F166" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" s="2" customFormat="1" ht="12.75">
+      <c r="A167" s="2" t="s">
+        <v>895</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>896</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>897</v>
+      </c>
+      <c r="E167" s="2" t="s">
+        <v>898</v>
+      </c>
+      <c r="F167" s="2" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" ht="12.75">
+      <c r="A168" t="s">
+        <v>900</v>
+      </c>
+      <c r="B168" t="s">
+        <v>901</v>
+      </c>
+      <c r="C168" t="s">
+        <v>902</v>
+      </c>
+      <c r="D168" t="s">
+        <v>903</v>
+      </c>
+      <c r="E168" t="s">
+        <v>904</v>
+      </c>
+      <c r="F168" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="33" spans="1:5" s="2" customFormat="1" ht="12.75">
-      <c r="A33" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="12.75">
-      <c r="A34" t="s">
-        <v>157</v>
-      </c>
-      <c r="B34" t="s">
-        <v>158</v>
-      </c>
-      <c r="C34" t="s">
-        <v>159</v>
-      </c>
-      <c r="D34" t="s">
-        <v>160</v>
-      </c>
-      <c r="E34" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" s="2" customFormat="1" ht="12.75">
-      <c r="A35" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="12.75">
-      <c r="A36" t="s">
-        <v>167</v>
-      </c>
-      <c r="B36" t="s">
-        <v>168</v>
-      </c>
-      <c r="C36" t="s">
-        <v>169</v>
-      </c>
-      <c r="D36" t="s">
-        <v>170</v>
-      </c>
-      <c r="E36" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" s="2" customFormat="1" ht="12.75">
-      <c r="A37" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="12.75">
-      <c r="A38" t="s">
-        <v>177</v>
-      </c>
-      <c r="B38" t="s">
-        <v>178</v>
-      </c>
-      <c r="C38" t="s">
-        <v>179</v>
-      </c>
-      <c r="D38" t="s">
-        <v>180</v>
-      </c>
-      <c r="E38" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" s="2" customFormat="1" ht="12.75">
-      <c r="A39" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="12.75">
-      <c r="A40" t="s">
-        <v>185</v>
-      </c>
-      <c r="B40" t="s">
-        <v>186</v>
-      </c>
-      <c r="C40" t="s">
-        <v>187</v>
-      </c>
-      <c r="D40" t="s">
-        <v>188</v>
-      </c>
-      <c r="E40" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" s="2" customFormat="1" ht="12.75">
-      <c r="A41" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="12.75">
-      <c r="A42" t="s">
-        <v>195</v>
-      </c>
-      <c r="B42" t="s">
-        <v>196</v>
-      </c>
-      <c r="C42" t="s">
-        <v>197</v>
-      </c>
-      <c r="D42" t="s">
-        <v>198</v>
-      </c>
-      <c r="E42" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" s="2" customFormat="1" ht="12.75">
-      <c r="A43" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="12.75">
-      <c r="A44" t="s">
-        <v>204</v>
-      </c>
-      <c r="B44" t="s">
-        <v>205</v>
-      </c>
-      <c r="C44" t="s">
-        <v>206</v>
-      </c>
-      <c r="D44" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" s="2" customFormat="1" ht="12.75">
-      <c r="A45" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="12.75">
-      <c r="A46" t="s">
-        <v>213</v>
-      </c>
-      <c r="B46" t="s">
+    <row r="169" spans="1:6" s="2" customFormat="1" ht="12.75">
+      <c r="A169" s="2" t="s">
+        <v>905</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>906</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>907</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>908</v>
+      </c>
+      <c r="E169" s="2" t="s">
+        <v>909</v>
+      </c>
+      <c r="F169" s="2" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" ht="12.75">
+      <c r="A170" t="s">
+        <v>911</v>
+      </c>
+      <c r="B170" t="s">
+        <v>912</v>
+      </c>
+      <c r="C170" t="s">
+        <v>913</v>
+      </c>
+      <c r="E170" t="s">
+        <v>914</v>
+      </c>
+      <c r="F170" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" s="2" customFormat="1" ht="12.75">
+      <c r="A171" s="2" t="s">
+        <v>916</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>917</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>918</v>
+      </c>
+      <c r="E171" s="2" t="s">
+        <v>919</v>
+      </c>
+      <c r="F171" s="2" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" ht="12.75">
+      <c r="A172" t="s">
+        <v>921</v>
+      </c>
+      <c r="B172" t="s">
+        <v>922</v>
+      </c>
+      <c r="C172" t="s">
+        <v>923</v>
+      </c>
+      <c r="E172" t="s">
+        <v>924</v>
+      </c>
+      <c r="F172" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" s="2" customFormat="1" ht="12.75">
+      <c r="A173" s="2" t="s">
+        <v>926</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>927</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>928</v>
+      </c>
+      <c r="F173" s="2" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" ht="12.75">
+      <c r="A174" t="s">
+        <v>929</v>
+      </c>
+      <c r="B174" t="s">
+        <v>930</v>
+      </c>
+      <c r="C174" t="s">
+        <v>931</v>
+      </c>
+      <c r="D174" t="s">
+        <v>932</v>
+      </c>
+      <c r="E174" t="s">
+        <v>933</v>
+      </c>
+      <c r="F174" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" s="2" customFormat="1" ht="12.75">
+      <c r="A175" s="2" t="s">
+        <v>934</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>935</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>936</v>
+      </c>
+      <c r="E175" s="2" t="s">
+        <v>937</v>
+      </c>
+      <c r="F175" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" ht="12.75">
+      <c r="A176" t="s">
+        <v>938</v>
+      </c>
+      <c r="B176" t="s">
+        <v>939</v>
+      </c>
+      <c r="C176" t="s">
+        <v>940</v>
+      </c>
+      <c r="D176" t="s">
+        <v>941</v>
+      </c>
+      <c r="E176" t="s">
+        <v>942</v>
+      </c>
+      <c r="F176" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" s="2" customFormat="1" ht="12.75">
+      <c r="A177" s="2" t="s">
+        <v>943</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>944</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>945</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>946</v>
+      </c>
+      <c r="E177" s="2" t="s">
+        <v>947</v>
+      </c>
+      <c r="F177" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" ht="12.75">
+      <c r="A178" t="s">
+        <v>948</v>
+      </c>
+      <c r="B178" t="s">
+        <v>949</v>
+      </c>
+      <c r="C178" t="s">
+        <v>950</v>
+      </c>
+      <c r="D178" t="s">
+        <v>951</v>
+      </c>
+      <c r="E178" t="s">
+        <v>952</v>
+      </c>
+      <c r="F178" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" s="2" customFormat="1" ht="12.75">
+      <c r="A179" s="2" t="s">
+        <v>954</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>955</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>956</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>957</v>
+      </c>
+      <c r="E179" s="2" t="s">
+        <v>958</v>
+      </c>
+      <c r="F179" s="2" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" ht="12.75">
+      <c r="A180" t="s">
+        <v>960</v>
+      </c>
+      <c r="B180" t="s">
+        <v>961</v>
+      </c>
+      <c r="C180" t="s">
+        <v>962</v>
+      </c>
+      <c r="E180" t="s">
+        <v>963</v>
+      </c>
+      <c r="F180" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" s="2" customFormat="1" ht="12.75">
+      <c r="A181" s="2" t="s">
+        <v>964</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>965</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>966</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>967</v>
+      </c>
+      <c r="E181" s="2" t="s">
+        <v>968</v>
+      </c>
+      <c r="F181" s="2" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" ht="12.75">
+      <c r="A182" t="s">
+        <v>970</v>
+      </c>
+      <c r="B182" t="s">
+        <v>971</v>
+      </c>
+      <c r="C182" t="s">
+        <v>972</v>
+      </c>
+      <c r="D182" t="s">
+        <v>973</v>
+      </c>
+      <c r="F182" t="s">
         <v>214</v>
-      </c>
-      <c r="D46" t="s">
-        <v>215</v>
-      </c>
-      <c r="E46" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" s="2" customFormat="1" ht="12.75">
-      <c r="A47" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="12.75">
-      <c r="A48" t="s">
-        <v>222</v>
-      </c>
-      <c r="B48" t="s">
-        <v>223</v>
-      </c>
-      <c r="C48" t="s">
-        <v>224</v>
-      </c>
-      <c r="E48" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" s="2" customFormat="1" ht="12.75">
-      <c r="A49" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="12.75">
-      <c r="A50" t="s">
-        <v>230</v>
-      </c>
-      <c r="B50" t="s">
-        <v>231</v>
-      </c>
-      <c r="C50" t="s">
-        <v>232</v>
-      </c>
-      <c r="D50" t="s">
-        <v>233</v>
-      </c>
-      <c r="E50" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" s="2" customFormat="1" ht="12.75">
-      <c r="A51" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="12.75">
-      <c r="A52" t="s">
-        <v>240</v>
-      </c>
-      <c r="B52" t="s">
-        <v>241</v>
-      </c>
-      <c r="C52" t="s">
-        <v>242</v>
-      </c>
-      <c r="D52" t="s">
-        <v>243</v>
-      </c>
-      <c r="E52" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" s="2" customFormat="1" ht="12.75">
-      <c r="A53" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="12.75">
-      <c r="A54" t="s">
-        <v>250</v>
-      </c>
-      <c r="B54" t="s">
-        <v>251</v>
-      </c>
-      <c r="C54" t="s">
-        <v>252</v>
-      </c>
-      <c r="D54" t="s">
-        <v>253</v>
-      </c>
-      <c r="E54" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" s="2" customFormat="1" ht="12.75">
-      <c r="A55" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" ht="12.75">
-      <c r="A56" t="s">
-        <v>260</v>
-      </c>
-      <c r="B56" t="s">
-        <v>261</v>
-      </c>
-      <c r="C56" t="s">
-        <v>262</v>
-      </c>
-      <c r="D56" t="s">
-        <v>263</v>
-      </c>
-      <c r="E56" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" s="2" customFormat="1" ht="12.75">
-      <c r="A57" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" ht="12.75">
-      <c r="A58" t="s">
-        <v>270</v>
-      </c>
-      <c r="B58" t="s">
-        <v>271</v>
-      </c>
-      <c r="C58" t="s">
-        <v>272</v>
-      </c>
-      <c r="D58" t="s">
-        <v>273</v>
-      </c>
-      <c r="E58" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" s="2" customFormat="1" ht="12.75">
-      <c r="A59" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" ht="12.75">
-      <c r="A60" t="s">
-        <v>279</v>
-      </c>
-      <c r="B60" t="s">
-        <v>280</v>
-      </c>
-      <c r="C60" t="s">
-        <v>281</v>
-      </c>
-      <c r="D60" t="s">
-        <v>282</v>
-      </c>
-      <c r="E60" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" s="2" customFormat="1" ht="12.75">
-      <c r="A61" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" ht="12.75">
-      <c r="A62" t="s">
-        <v>289</v>
-      </c>
-      <c r="B62" t="s">
-        <v>290</v>
-      </c>
-      <c r="C62" t="s">
-        <v>291</v>
-      </c>
-      <c r="E62" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" s="2" customFormat="1" ht="12.75">
-      <c r="A63" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" ht="12.75">
-      <c r="A64" t="s">
-        <v>298</v>
-      </c>
-      <c r="B64" t="s">
-        <v>299</v>
-      </c>
-      <c r="E64" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" s="2" customFormat="1" ht="12.75">
-      <c r="A65" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" ht="12.75">
-      <c r="A66" t="s">
-        <v>305</v>
-      </c>
-      <c r="B66" t="s">
-        <v>306</v>
-      </c>
-      <c r="C66" t="s">
-        <v>307</v>
-      </c>
-      <c r="D66" t="s">
-        <v>308</v>
-      </c>
-      <c r="E66" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" s="2" customFormat="1" ht="12.75">
-      <c r="A67" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" ht="12.75">
-      <c r="A68" t="s">
-        <v>315</v>
-      </c>
-      <c r="B68" t="s">
-        <v>316</v>
-      </c>
-      <c r="C68" t="s">
-        <v>317</v>
-      </c>
-      <c r="D68" t="s">
-        <v>318</v>
-      </c>
-      <c r="E68" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" s="2" customFormat="1" ht="12.75">
-      <c r="A69" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" ht="12.75">
-      <c r="A70" t="s">
-        <v>324</v>
-      </c>
-      <c r="B70" t="s">
-        <v>325</v>
-      </c>
-      <c r="C70" t="s">
-        <v>326</v>
-      </c>
-      <c r="D70" t="s">
-        <v>327</v>
-      </c>
-      <c r="E70" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" s="2" customFormat="1" ht="12.75">
-      <c r="A71" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" ht="12.75">
-      <c r="A72" t="s">
-        <v>334</v>
-      </c>
-      <c r="B72" t="s">
-        <v>335</v>
-      </c>
-      <c r="C72" t="s">
-        <v>336</v>
-      </c>
-      <c r="D72" t="s">
-        <v>337</v>
-      </c>
-      <c r="E72" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" s="2" customFormat="1" ht="12.75">
-      <c r="A73" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" ht="12.75">
-      <c r="A74" t="s">
-        <v>344</v>
-      </c>
-      <c r="B74" t="s">
-        <v>345</v>
-      </c>
-      <c r="C74" t="s">
-        <v>346</v>
-      </c>
-      <c r="D74" t="s">
-        <v>347</v>
-      </c>
-      <c r="E74" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" s="2" customFormat="1" ht="12.75">
-      <c r="A75" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" ht="12.75">
-      <c r="A76" t="s">
-        <v>353</v>
-      </c>
-      <c r="B76" t="s">
-        <v>354</v>
-      </c>
-      <c r="C76" t="s">
-        <v>355</v>
-      </c>
-      <c r="E76" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" s="2" customFormat="1" ht="12.75">
-      <c r="A77" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" ht="12.75">
-      <c r="A78" t="s">
-        <v>362</v>
-      </c>
-      <c r="B78" t="s">
-        <v>363</v>
-      </c>
-      <c r="C78" t="s">
-        <v>364</v>
-      </c>
-      <c r="D78" t="s">
-        <v>365</v>
-      </c>
-      <c r="E78" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" s="2" customFormat="1" ht="12.75">
-      <c r="A79" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" ht="12.75">
-      <c r="A80" t="s">
-        <v>371</v>
-      </c>
-      <c r="B80" t="s">
-        <v>372</v>
-      </c>
-      <c r="C80" t="s">
-        <v>373</v>
-      </c>
-      <c r="D80" t="s">
-        <v>374</v>
-      </c>
-      <c r="E80" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" s="2" customFormat="1" ht="12.75">
-      <c r="A81" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" ht="12.75">
-      <c r="A82" t="s">
-        <v>381</v>
-      </c>
-      <c r="B82" t="s">
-        <v>382</v>
-      </c>
-      <c r="C82" t="s">
-        <v>383</v>
-      </c>
-      <c r="D82" t="s">
-        <v>384</v>
-      </c>
-      <c r="E82" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" s="2" customFormat="1" ht="12.75">
-      <c r="A83" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" ht="12.75">
-      <c r="A84" t="s">
-        <v>391</v>
-      </c>
-      <c r="B84" t="s">
-        <v>392</v>
-      </c>
-      <c r="C84" t="s">
-        <v>388</v>
-      </c>
-      <c r="D84" t="s">
-        <v>393</v>
-      </c>
-      <c r="E84" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" s="2" customFormat="1" ht="12.75">
-      <c r="A85" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" ht="12.75">
-      <c r="A86" t="s">
-        <v>400</v>
-      </c>
-      <c r="B86" t="s">
-        <v>401</v>
-      </c>
-      <c r="C86" t="s">
-        <v>402</v>
-      </c>
-      <c r="D86" t="s">
-        <v>403</v>
-      </c>
-      <c r="E86" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" s="2" customFormat="1" ht="12.75">
-      <c r="A87" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" ht="12.75">
-      <c r="A88" t="s">
-        <v>410</v>
-      </c>
-      <c r="B88" t="s">
-        <v>411</v>
-      </c>
-      <c r="C88" t="s">
-        <v>412</v>
-      </c>
-      <c r="E88" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" s="2" customFormat="1" ht="12.75">
-      <c r="A89" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" ht="12.75">
-      <c r="A90" t="s">
-        <v>419</v>
-      </c>
-      <c r="B90" t="s">
-        <v>420</v>
-      </c>
-      <c r="C90" t="s">
-        <v>421</v>
-      </c>
-      <c r="D90" t="s">
-        <v>422</v>
-      </c>
-      <c r="E90" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" s="2" customFormat="1" ht="12.75">
-      <c r="A91" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>426</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>427</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" ht="12.75">
-      <c r="A92" t="s">
-        <v>429</v>
-      </c>
-      <c r="B92" t="s">
-        <v>430</v>
-      </c>
-      <c r="C92" t="s">
-        <v>431</v>
-      </c>
-      <c r="D92" t="s">
-        <v>432</v>
-      </c>
-      <c r="E92" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" s="2" customFormat="1" ht="12.75">
-      <c r="A93" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>435</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>437</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" ht="12.75">
-      <c r="A94" t="s">
-        <v>439</v>
-      </c>
-      <c r="B94" t="s">
-        <v>440</v>
-      </c>
-      <c r="C94" t="s">
-        <v>441</v>
-      </c>
-      <c r="D94" t="s">
-        <v>442</v>
-      </c>
-      <c r="E94" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" s="2" customFormat="1" ht="12.75">
-      <c r="A95" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>445</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" ht="12.75">
-      <c r="A96" t="s">
-        <v>449</v>
-      </c>
-      <c r="B96" t="s">
-        <v>450</v>
-      </c>
-      <c r="C96" t="s">
-        <v>451</v>
-      </c>
-      <c r="E96" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" s="2" customFormat="1" ht="12.75">
-      <c r="A97" s="2" t="s">
-        <v>453</v>
-      </c>
-      <c r="B97" s="2" t="s">
-        <v>454</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>455</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" ht="12.75">
-      <c r="A98" t="s">
-        <v>457</v>
-      </c>
-      <c r="B98" t="s">
-        <v>458</v>
-      </c>
-      <c r="C98" t="s">
-        <v>459</v>
-      </c>
-      <c r="D98" t="s">
-        <v>460</v>
-      </c>
-      <c r="E98" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" s="2" customFormat="1" ht="12.75">
-      <c r="A99" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>463</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" ht="12.75">
-      <c r="A100" t="s">
-        <v>467</v>
-      </c>
-      <c r="B100" t="s">
-        <v>468</v>
-      </c>
-      <c r="C100" t="s">
-        <v>469</v>
-      </c>
-      <c r="E100" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" s="2" customFormat="1" ht="12.75">
-      <c r="A101" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>473</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" ht="12.75">
-      <c r="A102" t="s">
-        <v>476</v>
-      </c>
-      <c r="B102" t="s">
-        <v>477</v>
-      </c>
-      <c r="C102" t="s">
-        <v>478</v>
-      </c>
-      <c r="D102" t="s">
-        <v>479</v>
-      </c>
-      <c r="E102" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" s="2" customFormat="1" ht="12.75">
-      <c r="A103" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="B103" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>483</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" ht="12.75">
-      <c r="A104" t="s">
-        <v>485</v>
-      </c>
-      <c r="B104" t="s">
-        <v>486</v>
-      </c>
-      <c r="C104" t="s">
-        <v>487</v>
-      </c>
-      <c r="D104" t="s">
-        <v>488</v>
-      </c>
-      <c r="E104" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" s="2" customFormat="1" ht="12.75">
-      <c r="A105" s="2" t="s">
-        <v>490</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>491</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>492</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>493</v>
-      </c>
-      <c r="E105" s="2" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" ht="12.75">
-      <c r="A106" t="s">
-        <v>495</v>
-      </c>
-      <c r="B106" t="s">
-        <v>496</v>
-      </c>
-      <c r="C106" t="s">
-        <v>497</v>
-      </c>
-      <c r="E106" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" s="2" customFormat="1" ht="12.75">
-      <c r="A107" s="2" t="s">
-        <v>499</v>
-      </c>
-      <c r="B107" s="2" t="s">
-        <v>500</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>501</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>502</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" ht="12.75">
-      <c r="A108" t="s">
-        <v>504</v>
-      </c>
-      <c r="B108" t="s">
-        <v>505</v>
-      </c>
-      <c r="C108" t="s">
-        <v>506</v>
-      </c>
-      <c r="D108" t="s">
-        <v>507</v>
-      </c>
-      <c r="E108" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" s="2" customFormat="1" ht="12.75">
-      <c r="A109" s="2" t="s">
-        <v>509</v>
-      </c>
-      <c r="B109" s="2" t="s">
-        <v>510</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>511</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>512</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" ht="12.75">
-      <c r="A110" t="s">
-        <v>514</v>
-      </c>
-      <c r="B110" t="s">
-        <v>515</v>
-      </c>
-      <c r="C110" t="s">
-        <v>516</v>
-      </c>
-      <c r="E110" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" s="2" customFormat="1" ht="12.75">
-      <c r="A111" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="B111" s="2" t="s">
-        <v>519</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" ht="12.75">
-      <c r="A112" t="s">
-        <v>522</v>
-      </c>
-      <c r="B112" t="s">
-        <v>523</v>
-      </c>
-      <c r="C112" t="s">
-        <v>524</v>
-      </c>
-      <c r="E112" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" s="2" customFormat="1" ht="12.75">
-      <c r="A113" s="2" t="s">
-        <v>525</v>
-      </c>
-      <c r="B113" s="2" t="s">
-        <v>526</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>527</v>
-      </c>
-      <c r="E113" s="2" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" ht="12.75">
-      <c r="A114" t="s">
-        <v>529</v>
-      </c>
-      <c r="B114" t="s">
-        <v>530</v>
-      </c>
-      <c r="C114" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" s="2" customFormat="1" ht="12.75">
-      <c r="A115" s="2" t="s">
-        <v>532</v>
-      </c>
-      <c r="B115" s="2" t="s">
-        <v>533</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>534</v>
-      </c>
-      <c r="E115" s="2" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" ht="12.75">
-      <c r="A116" t="s">
-        <v>536</v>
-      </c>
-      <c r="B116" t="s">
-        <v>537</v>
-      </c>
-      <c r="C116" t="s">
-        <v>538</v>
-      </c>
-      <c r="E116" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" s="2" customFormat="1" ht="12.75">
-      <c r="A117" s="2" t="s">
-        <v>540</v>
-      </c>
-      <c r="B117" s="2" t="s">
-        <v>541</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>542</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>543</v>
-      </c>
-      <c r="E117" s="2" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" ht="12.75">
-      <c r="A118" t="s">
-        <v>545</v>
-      </c>
-      <c r="B118" t="s">
-        <v>107</v>
-      </c>
-      <c r="E118" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" s="2" customFormat="1" ht="12.75">
-      <c r="A119" s="2" t="s">
-        <v>547</v>
-      </c>
-      <c r="B119" s="2" t="s">
-        <v>548</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>549</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>550</v>
-      </c>
-      <c r="E119" s="2" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" ht="12.75">
-      <c r="A120" t="s">
-        <v>552</v>
-      </c>
-      <c r="B120" t="s">
-        <v>553</v>
-      </c>
-      <c r="C120" t="s">
-        <v>554</v>
-      </c>
-      <c r="D120" t="s">
-        <v>555</v>
-      </c>
-      <c r="E120" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" s="2" customFormat="1" ht="12.75">
-      <c r="A121" s="2" t="s">
-        <v>557</v>
-      </c>
-      <c r="B121" s="2" t="s">
-        <v>558</v>
-      </c>
-      <c r="C121" s="2" t="s">
-        <v>559</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>560</v>
-      </c>
-      <c r="E121" s="2" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" ht="12.75">
-      <c r="A122" t="s">
-        <v>562</v>
-      </c>
-      <c r="B122" t="s">
-        <v>563</v>
-      </c>
-      <c r="C122" t="s">
-        <v>564</v>
-      </c>
-      <c r="D122" t="s">
-        <v>565</v>
-      </c>
-      <c r="E122" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" s="2" customFormat="1" ht="12.75">
-      <c r="A123" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="B123" s="2" t="s">
-        <v>568</v>
-      </c>
-      <c r="C123" s="2" t="s">
-        <v>569</v>
-      </c>
-      <c r="D123" s="2" t="s">
-        <v>570</v>
-      </c>
-      <c r="E123" s="2" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" ht="12.75">
-      <c r="A124" t="s">
-        <v>572</v>
-      </c>
-      <c r="B124" t="s">
-        <v>573</v>
-      </c>
-      <c r="C124" t="s">
-        <v>574</v>
-      </c>
-      <c r="D124" t="s">
-        <v>575</v>
-      </c>
-      <c r="E124" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" s="2" customFormat="1" ht="12.75">
-      <c r="A125" s="2" t="s">
-        <v>577</v>
-      </c>
-      <c r="B125" s="2" t="s">
-        <v>578</v>
-      </c>
-      <c r="C125" s="2" t="s">
-        <v>579</v>
-      </c>
-      <c r="D125" s="2" t="s">
-        <v>580</v>
-      </c>
-      <c r="E125" s="2" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" ht="12.75">
-      <c r="A126" t="s">
-        <v>582</v>
-      </c>
-      <c r="B126" t="s">
-        <v>583</v>
-      </c>
-      <c r="C126" t="s">
-        <v>584</v>
-      </c>
-      <c r="E126" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" s="2" customFormat="1" ht="12.75">
-      <c r="A127" s="2" t="s">
-        <v>586</v>
-      </c>
-      <c r="B127" s="2" t="s">
-        <v>587</v>
-      </c>
-      <c r="C127" s="2" t="s">
-        <v>588</v>
-      </c>
-      <c r="D127" s="2" t="s">
-        <v>589</v>
-      </c>
-      <c r="E127" s="2" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" ht="12.75">
-      <c r="A128" t="s">
-        <v>591</v>
-      </c>
-      <c r="B128" t="s">
-        <v>592</v>
-      </c>
-      <c r="C128" t="s">
-        <v>593</v>
-      </c>
-      <c r="D128" t="s">
-        <v>594</v>
-      </c>
-      <c r="E128" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" s="2" customFormat="1" ht="12.75">
-      <c r="A129" s="2" t="s">
-        <v>596</v>
-      </c>
-      <c r="B129" s="2" t="s">
-        <v>597</v>
-      </c>
-      <c r="C129" s="2" t="s">
-        <v>598</v>
-      </c>
-      <c r="D129" s="2" t="s">
-        <v>599</v>
-      </c>
-      <c r="E129" s="2" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" ht="12.75">
-      <c r="A130" t="s">
-        <v>601</v>
-      </c>
-      <c r="B130" t="s">
-        <v>602</v>
-      </c>
-      <c r="C130" t="s">
-        <v>603</v>
-      </c>
-      <c r="E130" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" s="2" customFormat="1" ht="12.75">
-      <c r="A131" s="2" t="s">
-        <v>605</v>
-      </c>
-      <c r="B131" s="2" t="s">
-        <v>606</v>
-      </c>
-      <c r="C131" s="2" t="s">
-        <v>607</v>
-      </c>
-      <c r="D131" s="2" t="s">
-        <v>608</v>
-      </c>
-      <c r="E131" s="2" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" ht="12.75">
-      <c r="A132" t="s">
-        <v>610</v>
-      </c>
-      <c r="B132" t="s">
-        <v>611</v>
-      </c>
-      <c r="C132" t="s">
-        <v>612</v>
-      </c>
-      <c r="E132" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" s="2" customFormat="1" ht="12.75">
-      <c r="A133" s="2" t="s">
-        <v>614</v>
-      </c>
-      <c r="B133" s="2" t="s">
-        <v>615</v>
-      </c>
-      <c r="C133" s="2" t="s">
-        <v>616</v>
-      </c>
-      <c r="D133" s="2" t="s">
-        <v>617</v>
-      </c>
-      <c r="E133" s="2" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" ht="12.75">
-      <c r="A134" t="s">
-        <v>619</v>
-      </c>
-      <c r="B134" t="s">
-        <v>620</v>
-      </c>
-      <c r="C134" t="s">
-        <v>621</v>
-      </c>
-      <c r="E134" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" s="2" customFormat="1" ht="12.75">
-      <c r="A135" s="2" t="s">
-        <v>623</v>
-      </c>
-      <c r="B135" s="2" t="s">
-        <v>624</v>
-      </c>
-      <c r="C135" s="2" t="s">
-        <v>625</v>
-      </c>
-      <c r="D135" s="2" t="s">
-        <v>626</v>
-      </c>
-      <c r="E135" s="2" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" ht="12.75">
-      <c r="A136" t="s">
-        <v>628</v>
-      </c>
-      <c r="B136" t="s">
-        <v>629</v>
-      </c>
-      <c r="C136" t="s">
-        <v>630</v>
-      </c>
-      <c r="D136" t="s">
-        <v>631</v>
-      </c>
-      <c r="E136" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" s="2" customFormat="1" ht="12.75">
-      <c r="A137" s="2" t="s">
-        <v>633</v>
-      </c>
-      <c r="B137" s="2" t="s">
-        <v>634</v>
-      </c>
-      <c r="C137" s="2" t="s">
-        <v>635</v>
-      </c>
-      <c r="E137" s="2" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" ht="12.75">
-      <c r="A138" t="s">
-        <v>637</v>
-      </c>
-      <c r="B138" t="s">
-        <v>638</v>
-      </c>
-      <c r="C138" t="s">
-        <v>639</v>
-      </c>
-      <c r="D138" t="s">
-        <v>640</v>
-      </c>
-      <c r="E138" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" s="2" customFormat="1" ht="12.75">
-      <c r="A139" s="2" t="s">
-        <v>642</v>
-      </c>
-      <c r="B139" s="2" t="s">
-        <v>643</v>
-      </c>
-      <c r="C139" s="2" t="s">
-        <v>644</v>
-      </c>
-      <c r="D139" s="2" t="s">
-        <v>645</v>
-      </c>
-      <c r="E139" s="2" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" ht="12.75">
-      <c r="A140" t="s">
-        <v>647</v>
-      </c>
-      <c r="B140" t="s">
-        <v>648</v>
-      </c>
-      <c r="C140" t="s">
-        <v>649</v>
-      </c>
-      <c r="E140" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" s="2" customFormat="1" ht="12.75">
-      <c r="A141" s="2" t="s">
-        <v>651</v>
-      </c>
-      <c r="B141" s="2" t="s">
-        <v>652</v>
-      </c>
-      <c r="C141" s="2" t="s">
-        <v>653</v>
-      </c>
-      <c r="D141" s="2" t="s">
-        <v>654</v>
-      </c>
-      <c r="E141" s="2" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" ht="12.75">
-      <c r="A142" t="s">
-        <v>656</v>
-      </c>
-      <c r="B142" t="s">
-        <v>657</v>
-      </c>
-      <c r="C142" t="s">
-        <v>658</v>
-      </c>
-      <c r="D142" t="s">
-        <v>659</v>
-      </c>
-      <c r="E142" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" s="2" customFormat="1" ht="12.75">
-      <c r="A143" s="2" t="s">
-        <v>661</v>
-      </c>
-      <c r="B143" s="2" t="s">
-        <v>662</v>
-      </c>
-      <c r="C143" s="2" t="s">
-        <v>663</v>
-      </c>
-      <c r="D143" s="2" t="s">
-        <v>664</v>
-      </c>
-      <c r="E143" s="2" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" ht="12.75">
-      <c r="A144" t="s">
-        <v>666</v>
-      </c>
-      <c r="B144" t="s">
-        <v>667</v>
-      </c>
-      <c r="C144" t="s">
-        <v>668</v>
-      </c>
-      <c r="D144" t="s">
-        <v>669</v>
-      </c>
-      <c r="E144" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" s="2" customFormat="1" ht="12.75">
-      <c r="A145" s="2" t="s">
-        <v>671</v>
-      </c>
-      <c r="B145" s="2" t="s">
-        <v>672</v>
-      </c>
-      <c r="C145" s="2" t="s">
-        <v>673</v>
-      </c>
-      <c r="D145" s="2" t="s">
-        <v>674</v>
-      </c>
-      <c r="E145" s="2" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" ht="12.75">
-      <c r="A146" t="s">
-        <v>676</v>
-      </c>
-      <c r="B146" t="s">
-        <v>677</v>
-      </c>
-      <c r="C146" t="s">
-        <v>678</v>
-      </c>
-      <c r="E146" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" s="2" customFormat="1" ht="12.75">
-      <c r="A147" s="2" t="s">
-        <v>680</v>
-      </c>
-      <c r="B147" s="2" t="s">
-        <v>681</v>
-      </c>
-      <c r="C147" s="2" t="s">
-        <v>682</v>
-      </c>
-      <c r="D147" s="2" t="s">
-        <v>683</v>
-      </c>
-      <c r="E147" s="2" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" ht="12.75">
-      <c r="A148" t="s">
-        <v>685</v>
-      </c>
-      <c r="B148" t="s">
-        <v>686</v>
-      </c>
-      <c r="D148" t="s">
-        <v>687</v>
-      </c>
-      <c r="E148" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" s="2" customFormat="1" ht="12.75">
-      <c r="A149" s="2" t="s">
-        <v>689</v>
-      </c>
-      <c r="B149" s="2" t="s">
-        <v>690</v>
-      </c>
-      <c r="C149" s="2" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" ht="12.75">
-      <c r="A150" t="s">
-        <v>692</v>
-      </c>
-      <c r="B150" t="s">
-        <v>693</v>
-      </c>
-      <c r="C150" t="s">
-        <v>694</v>
-      </c>
-      <c r="E150" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" s="2" customFormat="1" ht="12.75">
-      <c r="A151" s="2" t="s">
-        <v>696</v>
-      </c>
-      <c r="B151" s="2" t="s">
-        <v>697</v>
-      </c>
-      <c r="C151" s="2" t="s">
-        <v>698</v>
-      </c>
-      <c r="D151" s="2" t="s">
-        <v>699</v>
-      </c>
-      <c r="E151" s="2" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" ht="12.75">
-      <c r="A152" t="s">
-        <v>701</v>
-      </c>
-      <c r="B152" t="s">
-        <v>702</v>
-      </c>
-      <c r="C152" t="s">
-        <v>703</v>
-      </c>
-      <c r="D152" t="s">
-        <v>704</v>
-      </c>
-      <c r="E152" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" s="2" customFormat="1" ht="12.75">
-      <c r="A153" s="2" t="s">
-        <v>706</v>
-      </c>
-      <c r="B153" s="2" t="s">
-        <v>707</v>
-      </c>
-      <c r="C153" s="2" t="s">
-        <v>708</v>
-      </c>
-      <c r="E153" s="2" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" ht="12.75">
-      <c r="A154" t="s">
-        <v>710</v>
-      </c>
-      <c r="B154" t="s">
-        <v>711</v>
-      </c>
-      <c r="C154" t="s">
-        <v>712</v>
-      </c>
-      <c r="D154" t="s">
-        <v>713</v>
-      </c>
-      <c r="E154" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5" s="2" customFormat="1" ht="12.75">
-      <c r="A155" s="2" t="s">
-        <v>715</v>
-      </c>
-      <c r="B155" s="2" t="s">
-        <v>716</v>
-      </c>
-      <c r="C155" s="2" t="s">
-        <v>717</v>
-      </c>
-      <c r="E155" s="2" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5" ht="12.75">
-      <c r="A156" t="s">
-        <v>719</v>
-      </c>
-      <c r="B156" t="s">
-        <v>720</v>
-      </c>
-      <c r="C156" t="s">
-        <v>721</v>
-      </c>
-      <c r="D156" t="s">
-        <v>722</v>
-      </c>
-      <c r="E156" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5" s="2" customFormat="1" ht="12.75">
-      <c r="A157" s="2" t="s">
-        <v>724</v>
-      </c>
-      <c r="B157" s="2" t="s">
-        <v>725</v>
-      </c>
-      <c r="C157" s="2" t="s">
-        <v>726</v>
-      </c>
-      <c r="D157" s="2" t="s">
-        <v>727</v>
-      </c>
-      <c r="E157" s="2" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5" ht="12.75">
-      <c r="A158" t="s">
-        <v>729</v>
-      </c>
-      <c r="B158" t="s">
-        <v>730</v>
-      </c>
-      <c r="C158" t="s">
-        <v>731</v>
-      </c>
-      <c r="D158" t="s">
-        <v>732</v>
-      </c>
-      <c r="E158" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5" s="2" customFormat="1" ht="12.75">
-      <c r="A159" s="2" t="s">
-        <v>734</v>
-      </c>
-      <c r="B159" s="2" t="s">
-        <v>735</v>
-      </c>
-      <c r="C159" s="2" t="s">
-        <v>736</v>
-      </c>
-      <c r="E159" s="2" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5" ht="12.75">
-      <c r="A160" t="s">
-        <v>738</v>
-      </c>
-      <c r="B160" t="s">
-        <v>739</v>
-      </c>
-      <c r="C160" t="s">
-        <v>740</v>
-      </c>
-      <c r="D160" t="s">
-        <v>741</v>
-      </c>
-      <c r="E160" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5" s="2" customFormat="1" ht="12.75">
-      <c r="A161" s="2" t="s">
-        <v>743</v>
-      </c>
-      <c r="B161" s="2" t="s">
-        <v>744</v>
-      </c>
-      <c r="C161" s="2" t="s">
-        <v>745</v>
-      </c>
-      <c r="E161" s="2" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5" ht="12.75">
-      <c r="A162" t="s">
-        <v>747</v>
-      </c>
-      <c r="B162" t="s">
-        <v>748</v>
-      </c>
-      <c r="C162" t="s">
-        <v>745</v>
-      </c>
-      <c r="D162" t="s">
-        <v>749</v>
-      </c>
-      <c r="E162" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5" s="2" customFormat="1" ht="12.75">
-      <c r="A163" s="2" t="s">
-        <v>750</v>
-      </c>
-      <c r="B163" s="2" t="s">
-        <v>751</v>
-      </c>
-      <c r="C163" s="2" t="s">
-        <v>752</v>
-      </c>
-      <c r="D163" s="2" t="s">
-        <v>753</v>
-      </c>
-      <c r="E163" s="2" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5" ht="12.75">
-      <c r="A164" t="s">
-        <v>755</v>
-      </c>
-      <c r="B164" t="s">
-        <v>756</v>
-      </c>
-      <c r="C164" t="s">
-        <v>757</v>
-      </c>
-      <c r="E164" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5" s="2" customFormat="1" ht="12.75">
-      <c r="A165" s="2" t="s">
-        <v>759</v>
-      </c>
-      <c r="B165" s="2" t="s">
-        <v>760</v>
-      </c>
-      <c r="C165" s="2" t="s">
-        <v>761</v>
-      </c>
-      <c r="D165" s="2" t="s">
-        <v>762</v>
-      </c>
-      <c r="E165" s="2" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5" ht="12.75">
-      <c r="A166" t="s">
-        <v>764</v>
-      </c>
-      <c r="B166" t="s">
-        <v>765</v>
-      </c>
-      <c r="C166" t="s">
-        <v>766</v>
-      </c>
-      <c r="D166" t="s">
-        <v>767</v>
-      </c>
-      <c r="E166" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5" s="2" customFormat="1" ht="12.75">
-      <c r="A167" s="2" t="s">
-        <v>769</v>
-      </c>
-      <c r="B167" s="2" t="s">
-        <v>770</v>
-      </c>
-      <c r="C167" s="2" t="s">
-        <v>771</v>
-      </c>
-      <c r="E167" s="2" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5" ht="12.75">
-      <c r="A168" t="s">
-        <v>773</v>
-      </c>
-      <c r="B168" t="s">
-        <v>774</v>
-      </c>
-      <c r="C168" t="s">
-        <v>775</v>
-      </c>
-      <c r="D168" t="s">
-        <v>776</v>
-      </c>
-      <c r="E168" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5" s="2" customFormat="1" ht="12.75">
-      <c r="A169" s="2" t="s">
-        <v>778</v>
-      </c>
-      <c r="B169" s="2" t="s">
-        <v>779</v>
-      </c>
-      <c r="C169" s="2" t="s">
-        <v>780</v>
-      </c>
-      <c r="D169" s="2" t="s">
-        <v>781</v>
-      </c>
-      <c r="E169" s="2" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5" ht="12.75">
-      <c r="A170" t="s">
-        <v>783</v>
-      </c>
-      <c r="B170" t="s">
-        <v>784</v>
-      </c>
-      <c r="C170" t="s">
-        <v>785</v>
-      </c>
-      <c r="E170" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5" s="2" customFormat="1" ht="12.75">
-      <c r="A171" s="2" t="s">
-        <v>787</v>
-      </c>
-      <c r="B171" s="2" t="s">
-        <v>788</v>
-      </c>
-      <c r="C171" s="2" t="s">
-        <v>789</v>
-      </c>
-      <c r="E171" s="2" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5" ht="12.75">
-      <c r="A172" t="s">
-        <v>791</v>
-      </c>
-      <c r="B172" t="s">
-        <v>792</v>
-      </c>
-      <c r="C172" t="s">
-        <v>793</v>
-      </c>
-      <c r="E172" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" s="2" customFormat="1" ht="12.75">
-      <c r="A173" s="2" t="s">
-        <v>795</v>
-      </c>
-      <c r="B173" s="2" t="s">
-        <v>796</v>
-      </c>
-      <c r="C173" s="2" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5" ht="12.75">
-      <c r="A174" t="s">
-        <v>798</v>
-      </c>
-      <c r="B174" t="s">
-        <v>799</v>
-      </c>
-      <c r="C174" t="s">
-        <v>800</v>
-      </c>
-      <c r="D174" t="s">
-        <v>801</v>
-      </c>
-      <c r="E174" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5" s="2" customFormat="1" ht="12.75">
-      <c r="A175" s="2" t="s">
-        <v>803</v>
-      </c>
-      <c r="B175" s="2" t="s">
-        <v>804</v>
-      </c>
-      <c r="C175" s="2" t="s">
-        <v>805</v>
-      </c>
-      <c r="E175" s="2" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5" ht="12.75">
-      <c r="A176" t="s">
-        <v>807</v>
-      </c>
-      <c r="B176" t="s">
-        <v>808</v>
-      </c>
-      <c r="C176" t="s">
-        <v>809</v>
-      </c>
-      <c r="D176" t="s">
-        <v>810</v>
-      </c>
-      <c r="E176" t="s">
-        <v>811</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5" s="2" customFormat="1" ht="12.75">
-      <c r="A177" s="2" t="s">
-        <v>812</v>
-      </c>
-      <c r="B177" s="2" t="s">
-        <v>813</v>
-      </c>
-      <c r="C177" s="2" t="s">
-        <v>814</v>
-      </c>
-      <c r="D177" s="2" t="s">
-        <v>815</v>
-      </c>
-      <c r="E177" s="2" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5" ht="12.75">
-      <c r="A178" t="s">
-        <v>817</v>
-      </c>
-      <c r="B178" t="s">
-        <v>818</v>
-      </c>
-      <c r="C178" t="s">
-        <v>819</v>
-      </c>
-      <c r="D178" t="s">
-        <v>820</v>
-      </c>
-      <c r="E178" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5" s="2" customFormat="1" ht="12.75">
-      <c r="A179" s="2" t="s">
-        <v>822</v>
-      </c>
-      <c r="B179" s="2" t="s">
-        <v>823</v>
-      </c>
-      <c r="C179" s="2" t="s">
-        <v>824</v>
-      </c>
-      <c r="D179" s="2" t="s">
-        <v>825</v>
-      </c>
-      <c r="E179" s="2" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5" ht="12.75">
-      <c r="A180" t="s">
-        <v>827</v>
-      </c>
-      <c r="B180" t="s">
-        <v>828</v>
-      </c>
-      <c r="C180" t="s">
-        <v>829</v>
-      </c>
-      <c r="E180" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5" s="2" customFormat="1" ht="12.75">
-      <c r="A181" s="2" t="s">
-        <v>831</v>
-      </c>
-      <c r="B181" s="2" t="s">
-        <v>832</v>
-      </c>
-      <c r="C181" s="2" t="s">
-        <v>833</v>
-      </c>
-      <c r="D181" s="2" t="s">
-        <v>834</v>
-      </c>
-      <c r="E181" s="2" t="s">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" ht="12.75">
-      <c r="A182" t="s">
-        <v>836</v>
-      </c>
-      <c r="B182" t="s">
-        <v>837</v>
-      </c>
-      <c r="C182" t="s">
-        <v>838</v>
-      </c>
-      <c r="D182" t="s">
-        <v>839</v>
       </c>
     </row>
   </sheetData>
